--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_15_19.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_15_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>308339.4033673106</v>
+        <v>297832.2875308256</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19666330.80320995</v>
+        <v>19666330.80320993</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15641662.22209675</v>
+        <v>15641662.22209676</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4418233.656891194</v>
+        <v>4418233.656891196</v>
       </c>
     </row>
     <row r="11">
@@ -1378,19 +1378,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>25.66137551878182</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>25.66137551878156</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>121.8916316581077</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>81.70077364567959</v>
+        <v>81.70077364567955</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>121.8916316581077</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="T11" t="n">
-        <v>121.8916316581077</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>121.8916316581079</v>
       </c>
     </row>
     <row r="12">
@@ -1460,16 +1460,16 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>11.21470414387256</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>118.0923966805212</v>
       </c>
       <c r="H12" t="n">
-        <v>80.00854575966319</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>22.49179773586701</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,16 +1499,16 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>119.3379681607525</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>121.8916316581077</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>111.161384142048</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1517,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>121.8916316581079</v>
       </c>
     </row>
     <row r="13">
@@ -1539,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>121.8916316581077</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>116.8234155649305</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>121.8916316581077</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>112.4303652576383</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>107.3621491644614</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1612,22 +1612,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>107.3621491644614</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="G14" t="n">
-        <v>25.6613755187815</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>121.8916316581076</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>81.70077364567959</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="T14" t="n">
-        <v>121.8916316581076</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>121.8916316581076</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>121.8916316581076</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1694,7 +1694,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>109.9158126618162</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1736,25 +1736,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>119.3379681607525</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>107.3621491644614</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="Y15" t="n">
-        <v>121.8916316581076</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1776,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>116.8234155649304</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>121.8916316581076</v>
+        <v>107.3621491644614</v>
       </c>
       <c r="H16" t="n">
-        <v>121.8916316581076</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="I16" t="n">
-        <v>112.4303652576383</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1861,10 +1861,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>121.8916316581076</v>
+        <v>107.3621491644614</v>
       </c>
       <c r="I17" t="n">
-        <v>81.70077364567959</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="T17" t="n">
-        <v>121.8916316581076</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>121.8916316581076</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>25.6613755187815</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1928,22 +1928,22 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>8.661040646517259</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="E18" t="n">
-        <v>121.8916316581076</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>121.8916316581076</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>118.0923966805212</v>
       </c>
       <c r="H18" t="n">
-        <v>80.00854575966319</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>22.49179773586702</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1985,10 +1985,10 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>111.161384142048</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>13.60633383892367</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2049,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>93.75581532553741</v>
+        <v>93.75581532553738</v>
       </c>
       <c r="S19" t="n">
-        <v>121.8916316581076</v>
+        <v>13.60633383892402</v>
       </c>
       <c r="T19" t="n">
-        <v>121.8916316581076</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="W19" t="n">
-        <v>121.8916316581076</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2083,19 +2083,19 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>121.8916316581076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="G20" t="n">
-        <v>121.8916316581076</v>
+        <v>107.3621491644614</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="T20" t="n">
-        <v>107.3621491644611</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>121.8916316581076</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2168,19 +2168,19 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>8.661040646517879</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>118.0923966805212</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>80.00854575966318</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>22.49179773586699</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2216,19 +2216,19 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>121.8916316581076</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>121.8916316581076</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="W21" t="n">
-        <v>121.8916316581076</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>107.3621491644611</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2247,19 +2247,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>121.8916316581076</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>121.8916316581076</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="H22" t="n">
-        <v>107.3621491644611</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>107.3621491644614</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,13 +2292,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>121.8916316581076</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2320,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>380.7993111275196</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2329,13 +2329,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>335.408033241119</v>
       </c>
       <c r="G23" t="n">
-        <v>380.7993111275196</v>
+        <v>380.7993111275195</v>
       </c>
       <c r="H23" t="n">
-        <v>297.041052327115</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>38.36698091400422</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2383,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>380.7993111275195</v>
       </c>
       <c r="Y23" t="n">
-        <v>380.7993111275196</v>
+        <v>380.7993111275195</v>
       </c>
     </row>
     <row r="24">
@@ -2402,16 +2402,16 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D24" t="n">
-        <v>128.7880777047345</v>
+        <v>3.283536953999864</v>
       </c>
       <c r="E24" t="n">
         <v>135.0820259802211</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>117.6157438681085</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2447,19 +2447,19 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>110.4843512284371</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>170.2018932690224</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>207.8807042644113</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W24" t="n">
-        <v>54.92704828825765</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>187.4140068734885</v>
@@ -2478,25 +2478,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F25" t="n">
-        <v>128.8625309931623</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5290249541938</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.6550958700002</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>100.4130115499234</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>75.78790981212809</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>182.6201931892788</v>
       </c>
       <c r="T25" t="n">
-        <v>228.9075926638401</v>
+        <v>47.44751255320455</v>
       </c>
       <c r="U25" t="n">
         <v>282.5275408364805</v>
@@ -2538,13 +2538,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="26">
@@ -2560,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>380.7993111275196</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2572,10 +2572,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>297.041052327115</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>47.35584372665583</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         <v>111.8891511835047</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>211.0920715849299</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>253.009278343648</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>190.129524776429</v>
       </c>
       <c r="W26" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
-        <v>380.7993111275196</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>237.0291485037388</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2633,22 +2633,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>87.5560604735514</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G27" t="n">
-        <v>117.6157438681085</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>75.40508307136129</v>
@@ -2684,22 +2684,22 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>110.4843512284371</v>
       </c>
       <c r="T27" t="n">
         <v>170.2018932690224</v>
       </c>
       <c r="U27" t="n">
-        <v>207.8807042644113</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>227.816073408046</v>
       </c>
       <c r="X27" t="n">
-        <v>187.4140068734885</v>
+        <v>23.8131148910506</v>
       </c>
       <c r="Y27" t="n">
         <v>177.5210747552478</v>
@@ -2724,16 +2724,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>148.7048953423217</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5290249541938</v>
+        <v>69.10532611356133</v>
       </c>
       <c r="H28" t="n">
-        <v>144.6550958700002</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>100.4130115499234</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,16 +2766,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>228.9075926638401</v>
       </c>
       <c r="U28" t="n">
-        <v>282.5275408364805</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
         <v>231.7395189948467</v>
@@ -2797,7 +2797,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>380.7993111275196</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2809,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>297.041052327115</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>111.8891511835047</v>
       </c>
       <c r="T29" t="n">
         <v>211.0920715849299</v>
@@ -2851,16 +2851,16 @@
         <v>253.009278343648</v>
       </c>
       <c r="V29" t="n">
-        <v>338.6857412035168</v>
+        <v>223.9751020569608</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>380.7993111275195</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>294.2195643640634</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2873,19 +2873,19 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C30" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>117.6157438681085</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2933,13 +2933,13 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W30" t="n">
-        <v>104.5632753883667</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X30" t="n">
-        <v>187.4140068734885</v>
+        <v>14.9447138405368</v>
       </c>
       <c r="Y30" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2961,16 +2961,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>82.64528292592063</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5290249541938</v>
       </c>
       <c r="H31" t="n">
-        <v>144.6550958700002</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>100.4130115499234</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>182.6201931892788</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>228.9075926638401</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
-        <v>231.7395189948467</v>
+        <v>35.63855391940081</v>
       </c>
       <c r="Y31" t="n">
         <v>220.8809405715231</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>138.0225912675978</v>
+        <v>380.7993111275194</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>111.8891511835047</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3094,10 +3094,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
-        <v>380.7993111275194</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>26.1334400840932</v>
       </c>
     </row>
     <row r="33">
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>149.1476881355087</v>
@@ -3119,13 +3119,13 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F33" t="n">
-        <v>123.1874880556995</v>
+        <v>78.6369603579522</v>
       </c>
       <c r="G33" t="n">
         <v>117.6157438681085</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>75.40508307136129</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3158,22 +3158,22 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>110.4843512284371</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>157.8850723911223</v>
+        <v>207.8807042644113</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W33" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y33" t="n">
         <v>177.5210747552478</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>67.863251757773</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>198.841316445309</v>
       </c>
       <c r="U34" t="n">
         <v>282.5275408364805</v>
@@ -3255,7 +3255,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>138.0225912675983</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3274,13 +3274,13 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>380.7993111275196</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>237.029148503739</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>111.8891511835047</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>253.009278343648</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>367.2890446813954</v>
@@ -3347,25 +3347,25 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C36" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>84.62790624473234</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>7.111028260770188</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>6.080725027797108</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3395,13 +3395,13 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>110.4843512284371</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>170.2018932690224</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>207.8807042644113</v>
       </c>
       <c r="V36" t="n">
         <v>220.3146016126436</v>
@@ -3426,10 +3426,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>77.27302560886855</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5290249541938</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.6550958700002</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>100.4130115499234</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,13 +3477,13 @@
         <v>182.6201931892788</v>
       </c>
       <c r="T37" t="n">
-        <v>228.9075926638401</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>225.79268061139</v>
+        <v>282.5275408364805</v>
       </c>
       <c r="V37" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>280.4970980481341</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3511,19 +3511,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>380.7993111275196</v>
+        <v>138.022591267598</v>
       </c>
       <c r="F38" t="n">
-        <v>380.7993111275196</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>380.7993111275196</v>
+        <v>380.7993111275195</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>47.35584372665583</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3559,13 +3559,13 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>253.009278343648</v>
       </c>
       <c r="V38" t="n">
-        <v>288.0521895144636</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3584,7 +3584,7 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C39" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>128.7880777047345</v>
@@ -3638,19 +3638,19 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>144.090088663006</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>220.3146016126436</v>
+        <v>148.6172967824216</v>
       </c>
       <c r="W39" t="n">
         <v>227.816073408046</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="40">
@@ -3663,22 +3663,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>101.2525430559413</v>
+        <v>17.09778732178442</v>
       </c>
       <c r="H40" t="n">
-        <v>144.6550958700002</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>100.4130115499234</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>75.78790981212809</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>182.6201931892788</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>228.9075926638401</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>282.5275408364805</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y40" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>10.23255848372635</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>380.7993111275195</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>380.7993111275195</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>380.7993111275196</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>111.8891511835047</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>211.0920715849299</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>25.93707691880878</v>
       </c>
       <c r="V41" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>367.2890446813954</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>380.7993111275196</v>
       </c>
     </row>
     <row r="42">
@@ -3818,16 +3818,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C42" t="n">
-        <v>87.26819608129806</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D42" t="n">
         <v>128.7880777047345</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F42" t="n">
         <v>123.1874880556995</v>
@@ -3836,10 +3836,10 @@
         <v>117.6157438681085</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>75.40508307136129</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>6.080725027797108</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3872,16 +3872,16 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>170.2018932690224</v>
       </c>
       <c r="U42" t="n">
-        <v>207.8807042644113</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>227.816073408046</v>
+        <v>57.08378878593682</v>
       </c>
       <c r="X42" t="n">
         <v>187.4140068734885</v>
@@ -3906,19 +3906,19 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E43" t="n">
-        <v>58.82687743320903</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>20.57736763039837</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.6550958700002</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>100.4130115499234</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>75.78790981212809</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>182.6201931892788</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>228.9075926638401</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>282.5275408364805</v>
@@ -3960,7 +3960,7 @@
         <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
         <v>231.7395189948467</v>
@@ -3985,19 +3985,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>380.7993111275195</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>380.7993111275195</v>
+        <v>380.7993111275196</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.2195643640638</v>
       </c>
       <c r="I44" t="n">
-        <v>47.35584372665583</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>111.8891511835047</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>211.0920715849299</v>
@@ -4036,7 +4036,7 @@
         <v>253.009278343648</v>
       </c>
       <c r="V44" t="n">
-        <v>92.8609995299003</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4055,25 +4055,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>92.56848052294312</v>
+        <v>119.7596205046976</v>
       </c>
       <c r="C45" t="n">
         <v>149.1476881355087</v>
       </c>
       <c r="D45" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>135.0820259802211</v>
       </c>
       <c r="F45" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>117.6157438681085</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>75.40508307136129</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,10 +4106,10 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>110.4843512284371</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>170.2018932690224</v>
       </c>
       <c r="U45" t="n">
         <v>207.8807042644113</v>
@@ -4118,13 +4118,13 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W45" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="46">
@@ -4140,10 +4140,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>47.67001875692674</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>75.78790981212809</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>182.6201931892788</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>228.9075926638401</v>
       </c>
       <c r="U46" t="n">
         <v>282.5275408364805</v>
@@ -4200,10 +4200,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>161.3141540154254</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
   </sheetData>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>241.320806111001</v>
+        <v>118.1979458502864</v>
       </c>
       <c r="C11" t="n">
-        <v>241.320806111001</v>
+        <v>118.1979458502864</v>
       </c>
       <c r="D11" t="n">
-        <v>241.320806111001</v>
+        <v>118.1979458502864</v>
       </c>
       <c r="E11" t="n">
-        <v>241.320806111001</v>
+        <v>92.27736451818353</v>
       </c>
       <c r="F11" t="n">
-        <v>241.320806111001</v>
+        <v>92.27736451818353</v>
       </c>
       <c r="G11" t="n">
-        <v>215.4002247788984</v>
+        <v>92.27736451818353</v>
       </c>
       <c r="H11" t="n">
-        <v>92.27736451818356</v>
+        <v>92.27736451818353</v>
       </c>
       <c r="I11" t="n">
-        <v>9.751330532648614</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="J11" t="n">
         <v>13.67191254441013</v>
       </c>
       <c r="K11" t="n">
-        <v>52.52788553388314</v>
+        <v>52.52788553388308</v>
       </c>
       <c r="L11" t="n">
-        <v>124.7183011151468</v>
+        <v>124.7183011151469</v>
       </c>
       <c r="M11" t="n">
-        <v>225.6291823919087</v>
+        <v>225.629182391909</v>
       </c>
       <c r="N11" t="n">
-        <v>331.1718826730483</v>
+        <v>331.1718826730487</v>
       </c>
       <c r="O11" t="n">
-        <v>422.1649418990621</v>
+        <v>422.1649418990627</v>
       </c>
       <c r="P11" t="n">
-        <v>477.3997621913162</v>
+        <v>477.3997621913171</v>
       </c>
       <c r="Q11" t="n">
-        <v>487.5665266324307</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="R11" t="n">
-        <v>487.5665266324307</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="S11" t="n">
-        <v>364.4436663717158</v>
+        <v>364.4436663717165</v>
       </c>
       <c r="T11" t="n">
-        <v>241.320806111001</v>
+        <v>241.3208061110014</v>
       </c>
       <c r="U11" t="n">
-        <v>241.320806111001</v>
+        <v>241.3208061110014</v>
       </c>
       <c r="V11" t="n">
-        <v>241.320806111001</v>
+        <v>241.3208061110014</v>
       </c>
       <c r="W11" t="n">
-        <v>241.320806111001</v>
+        <v>241.3208061110014</v>
       </c>
       <c r="X11" t="n">
-        <v>241.320806111001</v>
+        <v>241.3208061110014</v>
       </c>
       <c r="Y11" t="n">
-        <v>241.320806111001</v>
+        <v>118.1979458502864</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>243.9002641891375</v>
+        <v>129.0365797048923</v>
       </c>
       <c r="C12" t="n">
-        <v>243.9002641891375</v>
+        <v>129.0365797048923</v>
       </c>
       <c r="D12" t="n">
-        <v>243.9002641891375</v>
+        <v>129.0365797048923</v>
       </c>
       <c r="E12" t="n">
-        <v>243.9002641891375</v>
+        <v>129.0365797048923</v>
       </c>
       <c r="F12" t="n">
-        <v>232.5722802054279</v>
+        <v>129.0365797048923</v>
       </c>
       <c r="G12" t="n">
-        <v>113.2870310331842</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="H12" t="n">
-        <v>32.4703181446355</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="I12" t="n">
-        <v>9.751330532648614</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="J12" t="n">
-        <v>9.751330532648614</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="K12" t="n">
-        <v>43.63722270065716</v>
+        <v>43.63722270065738</v>
       </c>
       <c r="L12" t="n">
-        <v>119.3106382502218</v>
+        <v>119.3106382502222</v>
       </c>
       <c r="M12" t="n">
-        <v>220.1999092241153</v>
+        <v>220.1999092241158</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1250381905284</v>
+        <v>333.1250381905289</v>
       </c>
       <c r="O12" t="n">
-        <v>421.9866026009618</v>
+        <v>421.9866026009624</v>
       </c>
       <c r="P12" t="n">
-        <v>480.739349156108</v>
+        <v>480.7393491561089</v>
       </c>
       <c r="Q12" t="n">
-        <v>487.5665266324307</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="R12" t="n">
-        <v>487.5665266324307</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="S12" t="n">
-        <v>367.0231244498524</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="T12" t="n">
-        <v>243.9002641891375</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="U12" t="n">
-        <v>243.9002641891375</v>
+        <v>364.4436663717165</v>
       </c>
       <c r="V12" t="n">
-        <v>243.9002641891375</v>
+        <v>252.1594399656074</v>
       </c>
       <c r="W12" t="n">
-        <v>243.9002641891375</v>
+        <v>252.1594399656074</v>
       </c>
       <c r="X12" t="n">
-        <v>243.9002641891375</v>
+        <v>252.1594399656074</v>
       </c>
       <c r="Y12" t="n">
-        <v>243.9002641891375</v>
+        <v>129.0365797048923</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>487.5665266324307</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="C13" t="n">
-        <v>487.5665266324307</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="D13" t="n">
-        <v>487.5665266324307</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="E13" t="n">
-        <v>487.5665266324307</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="F13" t="n">
-        <v>364.4436663717158</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="G13" t="n">
-        <v>246.4402163061295</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="H13" t="n">
-        <v>123.3173560454146</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="I13" t="n">
-        <v>9.751330532648614</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="J13" t="n">
-        <v>24.97459687068093</v>
+        <v>24.97459687068098</v>
       </c>
       <c r="K13" t="n">
-        <v>145.6473122122075</v>
+        <v>145.6473122122078</v>
       </c>
       <c r="L13" t="n">
-        <v>266.3200275537341</v>
+        <v>235.8534209112644</v>
       </c>
       <c r="M13" t="n">
-        <v>386.9927428952607</v>
+        <v>246.2210959493779</v>
       </c>
       <c r="N13" t="n">
-        <v>486.7040067051185</v>
+        <v>366.8938112909048</v>
       </c>
       <c r="O13" t="n">
-        <v>487.5665266324307</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="P13" t="n">
-        <v>487.5665266324307</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="Q13" t="n">
-        <v>487.5665266324307</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="R13" t="n">
-        <v>487.5665266324307</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="S13" t="n">
-        <v>487.5665266324307</v>
+        <v>364.4436663717165</v>
       </c>
       <c r="T13" t="n">
-        <v>487.5665266324307</v>
+        <v>241.3208061110014</v>
       </c>
       <c r="U13" t="n">
-        <v>487.5665266324307</v>
+        <v>118.1979458502864</v>
       </c>
       <c r="V13" t="n">
-        <v>487.5665266324307</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="W13" t="n">
-        <v>487.5665266324307</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="X13" t="n">
-        <v>487.5665266324307</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="Y13" t="n">
-        <v>487.5665266324307</v>
+        <v>9.751330532648632</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>241.3208061110009</v>
+        <v>241.3208061110014</v>
       </c>
       <c r="C14" t="n">
-        <v>241.3208061110009</v>
+        <v>241.3208061110014</v>
       </c>
       <c r="D14" t="n">
-        <v>241.3208061110009</v>
+        <v>132.8741907933637</v>
       </c>
       <c r="E14" t="n">
-        <v>241.3208061110009</v>
+        <v>132.8741907933637</v>
       </c>
       <c r="F14" t="n">
-        <v>241.3208061110009</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="G14" t="n">
-        <v>215.4002247788983</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="H14" t="n">
-        <v>92.27736451818356</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="I14" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="J14" t="n">
-        <v>13.67191254441005</v>
+        <v>13.67191254441013</v>
       </c>
       <c r="K14" t="n">
-        <v>52.52788553388282</v>
+        <v>52.52788553388308</v>
       </c>
       <c r="L14" t="n">
-        <v>124.7183011151465</v>
+        <v>124.7183011151469</v>
       </c>
       <c r="M14" t="n">
-        <v>225.6291823919084</v>
+        <v>225.629182391909</v>
       </c>
       <c r="N14" t="n">
-        <v>331.171882673048</v>
+        <v>331.1718826730487</v>
       </c>
       <c r="O14" t="n">
-        <v>422.1649418990618</v>
+        <v>422.1649418990627</v>
       </c>
       <c r="P14" t="n">
-        <v>477.399762191316</v>
+        <v>477.3997621913171</v>
       </c>
       <c r="Q14" t="n">
-        <v>487.5665266324305</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="R14" t="n">
-        <v>487.5665266324305</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="S14" t="n">
-        <v>487.5665266324305</v>
+        <v>364.4436663717165</v>
       </c>
       <c r="T14" t="n">
-        <v>364.4436663717157</v>
+        <v>364.4436663717165</v>
       </c>
       <c r="U14" t="n">
-        <v>241.3208061110009</v>
+        <v>364.4436663717165</v>
       </c>
       <c r="V14" t="n">
-        <v>241.3208061110009</v>
+        <v>241.3208061110014</v>
       </c>
       <c r="W14" t="n">
-        <v>241.3208061110009</v>
+        <v>241.3208061110014</v>
       </c>
       <c r="X14" t="n">
-        <v>241.3208061110009</v>
+        <v>241.3208061110014</v>
       </c>
       <c r="Y14" t="n">
-        <v>241.3208061110009</v>
+        <v>241.3208061110014</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>120.7774039284226</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="C15" t="n">
-        <v>120.7774039284226</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="D15" t="n">
-        <v>120.7774039284226</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="E15" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="F15" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="G15" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="H15" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="I15" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="J15" t="n">
-        <v>9.751330532648261</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="K15" t="n">
-        <v>43.63722270065691</v>
+        <v>43.63722270065737</v>
       </c>
       <c r="L15" t="n">
-        <v>119.3106382502216</v>
+        <v>119.3106382502222</v>
       </c>
       <c r="M15" t="n">
-        <v>220.1999092241151</v>
+        <v>220.1999092241158</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1250381905281</v>
+        <v>333.125038190529</v>
       </c>
       <c r="O15" t="n">
-        <v>421.9866026009615</v>
+        <v>421.9866026009626</v>
       </c>
       <c r="P15" t="n">
-        <v>480.7393491561078</v>
+        <v>480.739349156109</v>
       </c>
       <c r="Q15" t="n">
-        <v>487.5665266324305</v>
+        <v>487.5665266324317</v>
       </c>
       <c r="R15" t="n">
-        <v>487.5665266324305</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="S15" t="n">
-        <v>367.0231244498522</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="T15" t="n">
-        <v>367.0231244498522</v>
+        <v>364.4436663717165</v>
       </c>
       <c r="U15" t="n">
-        <v>367.0231244498522</v>
+        <v>255.9970510540787</v>
       </c>
       <c r="V15" t="n">
-        <v>367.0231244498522</v>
+        <v>255.9970510540787</v>
       </c>
       <c r="W15" t="n">
-        <v>367.0231244498522</v>
+        <v>132.8741907933637</v>
       </c>
       <c r="X15" t="n">
-        <v>367.0231244498522</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="Y15" t="n">
-        <v>243.9002641891374</v>
+        <v>9.751330532648632</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>487.5665266324305</v>
+        <v>241.3208061110014</v>
       </c>
       <c r="C16" t="n">
-        <v>487.5665266324305</v>
+        <v>241.3208061110014</v>
       </c>
       <c r="D16" t="n">
-        <v>487.5665266324305</v>
+        <v>241.3208061110014</v>
       </c>
       <c r="E16" t="n">
-        <v>487.5665266324305</v>
+        <v>241.3208061110014</v>
       </c>
       <c r="F16" t="n">
-        <v>369.5630765668442</v>
+        <v>241.3208061110014</v>
       </c>
       <c r="G16" t="n">
-        <v>246.4402163061294</v>
+        <v>132.8741907933637</v>
       </c>
       <c r="H16" t="n">
-        <v>123.3173560454146</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="I16" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="J16" t="n">
-        <v>24.97459687068093</v>
+        <v>24.97459687068098</v>
       </c>
       <c r="K16" t="n">
-        <v>24.97459687068093</v>
+        <v>24.97459687068098</v>
       </c>
       <c r="L16" t="n">
-        <v>145.6473122122075</v>
+        <v>68.83218278420469</v>
       </c>
       <c r="M16" t="n">
-        <v>266.320027553734</v>
+        <v>189.5048981257315</v>
       </c>
       <c r="N16" t="n">
-        <v>386.9927428952606</v>
+        <v>310.1776134672583</v>
       </c>
       <c r="O16" t="n">
-        <v>430.850328808784</v>
+        <v>430.8503288087851</v>
       </c>
       <c r="P16" t="n">
-        <v>430.850328808784</v>
+        <v>430.8503288087851</v>
       </c>
       <c r="Q16" t="n">
-        <v>487.5665266324305</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="R16" t="n">
-        <v>487.5665266324305</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="S16" t="n">
-        <v>487.5665266324305</v>
+        <v>364.4436663717165</v>
       </c>
       <c r="T16" t="n">
-        <v>487.5665266324305</v>
+        <v>364.4436663717165</v>
       </c>
       <c r="U16" t="n">
-        <v>487.5665266324305</v>
+        <v>364.4436663717165</v>
       </c>
       <c r="V16" t="n">
-        <v>487.5665266324305</v>
+        <v>364.4436663717165</v>
       </c>
       <c r="W16" t="n">
-        <v>487.5665266324305</v>
+        <v>364.4436663717165</v>
       </c>
       <c r="X16" t="n">
-        <v>487.5665266324305</v>
+        <v>241.3208061110014</v>
       </c>
       <c r="Y16" t="n">
-        <v>487.5665266324305</v>
+        <v>241.3208061110014</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>215.4002247788983</v>
+        <v>241.3208061110014</v>
       </c>
       <c r="C17" t="n">
-        <v>215.4002247788983</v>
+        <v>118.1979458502864</v>
       </c>
       <c r="D17" t="n">
-        <v>215.4002247788983</v>
+        <v>118.1979458502864</v>
       </c>
       <c r="E17" t="n">
-        <v>215.4002247788983</v>
+        <v>118.1979458502864</v>
       </c>
       <c r="F17" t="n">
-        <v>215.4002247788983</v>
+        <v>118.1979458502864</v>
       </c>
       <c r="G17" t="n">
-        <v>215.4002247788983</v>
+        <v>118.1979458502864</v>
       </c>
       <c r="H17" t="n">
-        <v>92.27736451818356</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="I17" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="J17" t="n">
-        <v>13.67191254441013</v>
+        <v>13.67191254441024</v>
       </c>
       <c r="K17" t="n">
-        <v>52.52788553388291</v>
+        <v>52.52788553388313</v>
       </c>
       <c r="L17" t="n">
-        <v>124.7183011151466</v>
+        <v>124.7183011151467</v>
       </c>
       <c r="M17" t="n">
-        <v>225.6291823919084</v>
+        <v>225.629182391909</v>
       </c>
       <c r="N17" t="n">
-        <v>331.171882673048</v>
+        <v>331.1718826730487</v>
       </c>
       <c r="O17" t="n">
-        <v>422.1649418990618</v>
+        <v>422.1649418990627</v>
       </c>
       <c r="P17" t="n">
-        <v>477.3997621913159</v>
+        <v>477.3997621913171</v>
       </c>
       <c r="Q17" t="n">
-        <v>487.5665266324305</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="R17" t="n">
-        <v>487.5665266324305</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="S17" t="n">
-        <v>487.5665266324305</v>
+        <v>364.4436663717165</v>
       </c>
       <c r="T17" t="n">
-        <v>364.4436663717157</v>
+        <v>364.4436663717165</v>
       </c>
       <c r="U17" t="n">
-        <v>241.3208061110009</v>
+        <v>364.4436663717165</v>
       </c>
       <c r="V17" t="n">
-        <v>215.4002247788983</v>
+        <v>241.3208061110014</v>
       </c>
       <c r="W17" t="n">
-        <v>215.4002247788983</v>
+        <v>241.3208061110014</v>
       </c>
       <c r="X17" t="n">
-        <v>215.4002247788983</v>
+        <v>241.3208061110014</v>
       </c>
       <c r="Y17" t="n">
-        <v>215.4002247788983</v>
+        <v>241.3208061110014</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>487.5665266324305</v>
+        <v>252.1594399656074</v>
       </c>
       <c r="C18" t="n">
-        <v>487.5665266324305</v>
+        <v>252.1594399656074</v>
       </c>
       <c r="D18" t="n">
-        <v>478.8180007268575</v>
+        <v>129.0365797048923</v>
       </c>
       <c r="E18" t="n">
-        <v>355.6951404661427</v>
+        <v>129.0365797048923</v>
       </c>
       <c r="F18" t="n">
-        <v>232.5722802054279</v>
+        <v>129.0365797048923</v>
       </c>
       <c r="G18" t="n">
-        <v>113.2870310331842</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="H18" t="n">
-        <v>32.4703181446355</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="I18" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="J18" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="K18" t="n">
-        <v>43.63722270065724</v>
+        <v>43.63722270065737</v>
       </c>
       <c r="L18" t="n">
-        <v>119.3106382502219</v>
+        <v>119.3106382502222</v>
       </c>
       <c r="M18" t="n">
-        <v>220.1999092241153</v>
+        <v>220.1999092241158</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1250381905284</v>
+        <v>333.125038190529</v>
       </c>
       <c r="O18" t="n">
-        <v>421.9866026009616</v>
+        <v>421.9866026009626</v>
       </c>
       <c r="P18" t="n">
-        <v>480.7393491561079</v>
+        <v>480.739349156109</v>
       </c>
       <c r="Q18" t="n">
-        <v>487.5665266324305</v>
+        <v>487.5665266324317</v>
       </c>
       <c r="R18" t="n">
-        <v>487.5665266324305</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="S18" t="n">
-        <v>487.5665266324305</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="T18" t="n">
-        <v>487.5665266324305</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="U18" t="n">
-        <v>487.5665266324305</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="V18" t="n">
-        <v>487.5665266324305</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="W18" t="n">
-        <v>487.5665266324305</v>
+        <v>375.2823002263224</v>
       </c>
       <c r="X18" t="n">
-        <v>487.5665266324305</v>
+        <v>252.1594399656074</v>
       </c>
       <c r="Y18" t="n">
-        <v>487.5665266324305</v>
+        <v>252.1594399656074</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="C19" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="D19" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="E19" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="F19" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="G19" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="H19" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="I19" t="n">
-        <v>9.751330532648609</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="J19" t="n">
-        <v>24.97459687068092</v>
+        <v>24.97459687068098</v>
       </c>
       <c r="K19" t="n">
-        <v>145.6473122122075</v>
+        <v>145.6473122122078</v>
       </c>
       <c r="L19" t="n">
-        <v>245.3585760220652</v>
+        <v>266.3200275537346</v>
       </c>
       <c r="M19" t="n">
-        <v>366.0312913635917</v>
+        <v>276.6877025918481</v>
       </c>
       <c r="N19" t="n">
-        <v>486.7040067051183</v>
+        <v>291.9162493293146</v>
       </c>
       <c r="O19" t="n">
-        <v>487.5665266324305</v>
+        <v>310.1776134672583</v>
       </c>
       <c r="P19" t="n">
-        <v>487.5665266324305</v>
+        <v>430.8503288087851</v>
       </c>
       <c r="Q19" t="n">
-        <v>487.5665266324305</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="R19" t="n">
-        <v>392.8636828692613</v>
+        <v>392.8636828692625</v>
       </c>
       <c r="S19" t="n">
-        <v>269.7408226085465</v>
+        <v>379.1199113147938</v>
       </c>
       <c r="T19" t="n">
-        <v>146.6179623478317</v>
+        <v>255.9970510540787</v>
       </c>
       <c r="U19" t="n">
-        <v>146.6179623478317</v>
+        <v>132.8741907933637</v>
       </c>
       <c r="V19" t="n">
-        <v>146.6179623478317</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="W19" t="n">
-        <v>23.49510208711696</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="X19" t="n">
-        <v>23.49510208711696</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="Y19" t="n">
-        <v>23.49510208711696</v>
+        <v>9.751330532648632</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>255.997051054078</v>
+        <v>364.4436663717165</v>
       </c>
       <c r="C20" t="n">
-        <v>132.8741907933633</v>
+        <v>364.4436663717165</v>
       </c>
       <c r="D20" t="n">
-        <v>132.8741907933633</v>
+        <v>364.4436663717165</v>
       </c>
       <c r="E20" t="n">
-        <v>132.8741907933633</v>
+        <v>241.3208061110014</v>
       </c>
       <c r="F20" t="n">
-        <v>132.8741907933633</v>
+        <v>118.1979458502864</v>
       </c>
       <c r="G20" t="n">
-        <v>9.751330532648605</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="H20" t="n">
-        <v>9.751330532648605</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="I20" t="n">
-        <v>9.751330532648605</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="J20" t="n">
-        <v>13.67191254441016</v>
+        <v>13.67191254441025</v>
       </c>
       <c r="K20" t="n">
-        <v>52.52788553388289</v>
+        <v>52.52788553388314</v>
       </c>
       <c r="L20" t="n">
-        <v>124.7183011151465</v>
+        <v>124.7183011151468</v>
       </c>
       <c r="M20" t="n">
-        <v>225.6291823919084</v>
+        <v>225.6291823919089</v>
       </c>
       <c r="N20" t="n">
-        <v>331.1718826730479</v>
+        <v>331.1718826730487</v>
       </c>
       <c r="O20" t="n">
-        <v>422.1649418990617</v>
+        <v>422.1649418990627</v>
       </c>
       <c r="P20" t="n">
-        <v>477.3997621913159</v>
+        <v>477.3997621913171</v>
       </c>
       <c r="Q20" t="n">
-        <v>487.5665266324302</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="R20" t="n">
-        <v>487.5665266324302</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="S20" t="n">
-        <v>487.5665266324302</v>
+        <v>364.4436663717165</v>
       </c>
       <c r="T20" t="n">
-        <v>379.1199113147928</v>
+        <v>364.4436663717165</v>
       </c>
       <c r="U20" t="n">
-        <v>379.1199113147928</v>
+        <v>364.4436663717165</v>
       </c>
       <c r="V20" t="n">
-        <v>255.997051054078</v>
+        <v>364.4436663717165</v>
       </c>
       <c r="W20" t="n">
-        <v>255.997051054078</v>
+        <v>364.4436663717165</v>
       </c>
       <c r="X20" t="n">
-        <v>255.997051054078</v>
+        <v>364.4436663717165</v>
       </c>
       <c r="Y20" t="n">
-        <v>255.997051054078</v>
+        <v>364.4436663717165</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>9.751330532648605</v>
+        <v>241.3208061110014</v>
       </c>
       <c r="C21" t="n">
-        <v>9.751330532648605</v>
+        <v>241.3208061110014</v>
       </c>
       <c r="D21" t="n">
-        <v>9.751330532648605</v>
+        <v>241.3208061110014</v>
       </c>
       <c r="E21" t="n">
-        <v>9.751330532648605</v>
+        <v>232.5722802054278</v>
       </c>
       <c r="F21" t="n">
-        <v>9.751330532648605</v>
+        <v>232.5722802054278</v>
       </c>
       <c r="G21" t="n">
-        <v>9.751330532648605</v>
+        <v>113.2870310331841</v>
       </c>
       <c r="H21" t="n">
-        <v>9.751330532648605</v>
+        <v>32.47031814463549</v>
       </c>
       <c r="I21" t="n">
-        <v>9.751330532648605</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="J21" t="n">
-        <v>9.751330532648605</v>
+        <v>9.751330532648495</v>
       </c>
       <c r="K21" t="n">
         <v>43.63722270065723</v>
       </c>
       <c r="L21" t="n">
-        <v>119.3106382502219</v>
+        <v>119.310638250222</v>
       </c>
       <c r="M21" t="n">
-        <v>220.1999092241153</v>
+        <v>220.1999092241157</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1250381905284</v>
+        <v>333.1250381905289</v>
       </c>
       <c r="O21" t="n">
-        <v>421.9866026009616</v>
+        <v>421.9866026009624</v>
       </c>
       <c r="P21" t="n">
-        <v>480.7393491561079</v>
+        <v>480.7393491561089</v>
       </c>
       <c r="Q21" t="n">
-        <v>487.5665266324302</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="R21" t="n">
-        <v>487.5665266324302</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="S21" t="n">
-        <v>487.5665266324302</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="T21" t="n">
-        <v>487.5665266324302</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="U21" t="n">
-        <v>364.4436663717155</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="V21" t="n">
-        <v>241.3208061110008</v>
+        <v>364.4436663717165</v>
       </c>
       <c r="W21" t="n">
-        <v>118.197945850286</v>
+        <v>241.3208061110014</v>
       </c>
       <c r="X21" t="n">
-        <v>118.197945850286</v>
+        <v>241.3208061110014</v>
       </c>
       <c r="Y21" t="n">
-        <v>9.751330532648605</v>
+        <v>241.3208061110014</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>364.4436663717155</v>
+        <v>241.3208061110014</v>
       </c>
       <c r="C22" t="n">
-        <v>364.4436663717155</v>
+        <v>241.3208061110014</v>
       </c>
       <c r="D22" t="n">
-        <v>364.4436663717155</v>
+        <v>241.3208061110014</v>
       </c>
       <c r="E22" t="n">
-        <v>241.3208061110008</v>
+        <v>241.3208061110014</v>
       </c>
       <c r="F22" t="n">
-        <v>241.3208061110008</v>
+        <v>241.3208061110014</v>
       </c>
       <c r="G22" t="n">
-        <v>118.197945850286</v>
+        <v>118.1979458502864</v>
       </c>
       <c r="H22" t="n">
-        <v>9.751330532648605</v>
+        <v>118.1979458502864</v>
       </c>
       <c r="I22" t="n">
-        <v>9.751330532648605</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="J22" t="n">
-        <v>24.97459687068092</v>
+        <v>24.97459687068098</v>
       </c>
       <c r="K22" t="n">
-        <v>145.6473122122074</v>
+        <v>117.7239252750036</v>
       </c>
       <c r="L22" t="n">
-        <v>173.4138314609521</v>
+        <v>125.5483806078511</v>
       </c>
       <c r="M22" t="n">
-        <v>294.0865468024786</v>
+        <v>246.2210959493779</v>
       </c>
       <c r="N22" t="n">
-        <v>309.3150935399451</v>
+        <v>366.8938112909048</v>
       </c>
       <c r="O22" t="n">
-        <v>310.1776134672572</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="P22" t="n">
-        <v>430.8503288087837</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="Q22" t="n">
-        <v>487.5665266324302</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="R22" t="n">
-        <v>487.5665266324302</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="S22" t="n">
-        <v>487.5665266324302</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="T22" t="n">
-        <v>364.4436663717155</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="U22" t="n">
-        <v>364.4436663717155</v>
+        <v>364.4436663717165</v>
       </c>
       <c r="V22" t="n">
-        <v>364.4436663717155</v>
+        <v>241.3208061110014</v>
       </c>
       <c r="W22" t="n">
-        <v>364.4436663717155</v>
+        <v>241.3208061110014</v>
       </c>
       <c r="X22" t="n">
-        <v>364.4436663717155</v>
+        <v>241.3208061110014</v>
       </c>
       <c r="Y22" t="n">
-        <v>364.4436663717155</v>
+        <v>241.3208061110014</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1099.79694951864</v>
+        <v>753.9057068787254</v>
       </c>
       <c r="C23" t="n">
-        <v>715.1511807029638</v>
+        <v>753.9057068787254</v>
       </c>
       <c r="D23" t="n">
-        <v>715.1511807029638</v>
+        <v>753.9057068787254</v>
       </c>
       <c r="E23" t="n">
-        <v>715.1511807029638</v>
+        <v>753.9057068787254</v>
       </c>
       <c r="F23" t="n">
-        <v>715.1511807029638</v>
+        <v>415.1097137058778</v>
       </c>
       <c r="G23" t="n">
-        <v>330.5054118872875</v>
+        <v>30.46394489020156</v>
       </c>
       <c r="H23" t="n">
         <v>30.46394489020156</v>
@@ -5992,19 +5992,19 @@
         <v>109.2391580090921</v>
       </c>
       <c r="K23" t="n">
-        <v>260.2828189667944</v>
+        <v>260.2828189667939</v>
       </c>
       <c r="L23" t="n">
-        <v>471.6519817866126</v>
+        <v>471.6519817866122</v>
       </c>
       <c r="M23" t="n">
-        <v>727.4260362398829</v>
+        <v>727.4260362398825</v>
       </c>
       <c r="N23" t="n">
-        <v>990.3377577439898</v>
+        <v>990.3377577439892</v>
       </c>
       <c r="O23" t="n">
-        <v>1229.929921250789</v>
+        <v>1229.929921250788</v>
       </c>
       <c r="P23" t="n">
         <v>1411.99063908491</v>
@@ -6019,22 +6019,22 @@
         <v>1523.197244510078</v>
       </c>
       <c r="T23" t="n">
-        <v>1484.442718334316</v>
+        <v>1523.197244510078</v>
       </c>
       <c r="U23" t="n">
-        <v>1484.442718334316</v>
+        <v>1523.197244510078</v>
       </c>
       <c r="V23" t="n">
-        <v>1484.442718334316</v>
+        <v>1523.197244510078</v>
       </c>
       <c r="W23" t="n">
-        <v>1484.442718334316</v>
+        <v>1523.197244510078</v>
       </c>
       <c r="X23" t="n">
-        <v>1484.442718334316</v>
+        <v>1138.551475694402</v>
       </c>
       <c r="Y23" t="n">
-        <v>1099.79694951864</v>
+        <v>753.9057068787254</v>
       </c>
     </row>
     <row r="24">
@@ -6044,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>453.7957800904657</v>
+        <v>570.2591045077115</v>
       </c>
       <c r="C24" t="n">
-        <v>303.1415496505579</v>
+        <v>419.6048740678037</v>
       </c>
       <c r="D24" t="n">
-        <v>173.0525822720382</v>
+        <v>416.2881700738645</v>
       </c>
       <c r="E24" t="n">
-        <v>36.60609138292592</v>
+        <v>279.8416791847522</v>
       </c>
       <c r="F24" t="n">
-        <v>36.60609138292592</v>
+        <v>155.409873067884</v>
       </c>
       <c r="G24" t="n">
-        <v>36.60609138292592</v>
+        <v>36.60609138292591</v>
       </c>
       <c r="H24" t="n">
-        <v>36.60609138292592</v>
+        <v>36.60609138292591</v>
       </c>
       <c r="I24" t="n">
         <v>30.46394489020156</v>
       </c>
       <c r="J24" t="n">
-        <v>65.1503216375315</v>
+        <v>259.8853166172589</v>
       </c>
       <c r="K24" t="n">
-        <v>175.2355003347222</v>
+        <v>418.9029697490731</v>
       </c>
       <c r="L24" t="n">
-        <v>353.3682601987927</v>
+        <v>597.0357296131435</v>
       </c>
       <c r="M24" t="n">
-        <v>573.8227532926538</v>
+        <v>817.4902227070047</v>
       </c>
       <c r="N24" t="n">
-        <v>809.4776400311279</v>
+        <v>1053.145109445479</v>
       </c>
       <c r="O24" t="n">
-        <v>1010.612955598596</v>
+        <v>1254.280425012947</v>
       </c>
       <c r="P24" t="n">
-        <v>1387.60427361484</v>
+        <v>1403.142755100361</v>
       </c>
       <c r="Q24" t="n">
         <v>1470.205802830787</v>
@@ -6095,25 +6095,25 @@
         <v>1523.197244510078</v>
       </c>
       <c r="S24" t="n">
-        <v>1411.596889733879</v>
+        <v>1523.197244510078</v>
       </c>
       <c r="T24" t="n">
-        <v>1239.675785421735</v>
+        <v>1523.197244510078</v>
       </c>
       <c r="U24" t="n">
-        <v>1029.695276063744</v>
+        <v>1313.216735152087</v>
       </c>
       <c r="V24" t="n">
-        <v>1029.695276063744</v>
+        <v>1090.676733523154</v>
       </c>
       <c r="W24" t="n">
-        <v>974.2134091059081</v>
+        <v>1090.676733523154</v>
       </c>
       <c r="X24" t="n">
-        <v>784.9063314559198</v>
+        <v>901.3696558731656</v>
       </c>
       <c r="Y24" t="n">
-        <v>605.592114531427</v>
+        <v>722.0554389486729</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>745.5778137002525</v>
+        <v>498.9818049155114</v>
       </c>
       <c r="C25" t="n">
-        <v>575.3726957662417</v>
+        <v>498.9818049155114</v>
       </c>
       <c r="D25" t="n">
-        <v>575.3726957662417</v>
+        <v>343.3486918180261</v>
       </c>
       <c r="E25" t="n">
-        <v>575.3726957662417</v>
+        <v>187.7898796772286</v>
       </c>
       <c r="F25" t="n">
-        <v>445.2085230458757</v>
+        <v>30.46394489020156</v>
       </c>
       <c r="G25" t="n">
-        <v>278.0074877386093</v>
+        <v>30.46394489020156</v>
       </c>
       <c r="H25" t="n">
-        <v>131.8912292840636</v>
+        <v>30.46394489020156</v>
       </c>
       <c r="I25" t="n">
         <v>30.46394489020156</v>
       </c>
       <c r="J25" t="n">
-        <v>30.46394489020156</v>
+        <v>73.65709338876894</v>
       </c>
       <c r="K25" t="n">
-        <v>232.206002614126</v>
+        <v>275.3991511126933</v>
       </c>
       <c r="L25" t="n">
-        <v>298.8474121521156</v>
+        <v>442.677811524036</v>
       </c>
       <c r="M25" t="n">
-        <v>646.919638962594</v>
+        <v>790.7500383345146</v>
       </c>
       <c r="N25" t="n">
-        <v>880.0719890793293</v>
+        <v>1131.873538614798</v>
       </c>
       <c r="O25" t="n">
         <v>1188.65424393905</v>
       </c>
       <c r="P25" t="n">
-        <v>1433.353801658698</v>
+        <v>1433.353801658697</v>
       </c>
       <c r="Q25" t="n">
         <v>1523.197244510078</v>
       </c>
       <c r="R25" t="n">
-        <v>1446.643800255403</v>
+        <v>1523.197244510078</v>
       </c>
       <c r="S25" t="n">
-        <v>1262.178958650071</v>
+        <v>1338.732402904746</v>
       </c>
       <c r="T25" t="n">
-        <v>1030.959168080536</v>
+        <v>1290.805622547974</v>
       </c>
       <c r="U25" t="n">
-        <v>745.5778137002525</v>
+        <v>1005.42426816769</v>
       </c>
       <c r="V25" t="n">
-        <v>745.5778137002525</v>
+        <v>1005.42426816769</v>
       </c>
       <c r="W25" t="n">
-        <v>745.5778137002525</v>
+        <v>722.093866098868</v>
       </c>
       <c r="X25" t="n">
-        <v>745.5778137002525</v>
+        <v>722.093866098868</v>
       </c>
       <c r="Y25" t="n">
-        <v>745.5778137002525</v>
+        <v>498.9818049155114</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>415.1097137058779</v>
+        <v>378.3395974697681</v>
       </c>
       <c r="C26" t="n">
-        <v>415.1097137058779</v>
+        <v>378.3395974697681</v>
       </c>
       <c r="D26" t="n">
-        <v>30.46394489020156</v>
+        <v>378.3395974697681</v>
       </c>
       <c r="E26" t="n">
-        <v>30.46394489020156</v>
+        <v>378.3395974697681</v>
       </c>
       <c r="F26" t="n">
-        <v>30.46394489020156</v>
+        <v>378.3395974697681</v>
       </c>
       <c r="G26" t="n">
-        <v>30.46394489020156</v>
+        <v>378.3395974697681</v>
       </c>
       <c r="H26" t="n">
-        <v>30.46394489020156</v>
+        <v>78.2981304726822</v>
       </c>
       <c r="I26" t="n">
         <v>30.46394489020156</v>
@@ -6232,13 +6232,13 @@
         <v>260.2828189667944</v>
       </c>
       <c r="L26" t="n">
-        <v>471.651981786613</v>
+        <v>471.6519817866126</v>
       </c>
       <c r="M26" t="n">
-        <v>727.4260362398832</v>
+        <v>727.4260362398827</v>
       </c>
       <c r="N26" t="n">
-        <v>990.33775774399</v>
+        <v>990.3377577439895</v>
       </c>
       <c r="O26" t="n">
         <v>1229.929921250789</v>
@@ -6256,22 +6256,22 @@
         <v>1410.177899880276</v>
       </c>
       <c r="T26" t="n">
-        <v>1410.177899880276</v>
+        <v>1196.953585148023</v>
       </c>
       <c r="U26" t="n">
-        <v>1410.177899880276</v>
+        <v>941.3886575281766</v>
       </c>
       <c r="V26" t="n">
-        <v>1410.177899880276</v>
+        <v>749.3386325014807</v>
       </c>
       <c r="W26" t="n">
-        <v>1039.178864848563</v>
+        <v>378.3395974697681</v>
       </c>
       <c r="X26" t="n">
-        <v>654.5330960328868</v>
+        <v>378.3395974697681</v>
       </c>
       <c r="Y26" t="n">
-        <v>415.1097137058779</v>
+        <v>378.3395974697681</v>
       </c>
     </row>
     <row r="27">
@@ -6281,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>231.5766236450166</v>
+        <v>654.3943367844665</v>
       </c>
       <c r="C27" t="n">
-        <v>231.5766236450166</v>
+        <v>503.7401063445587</v>
       </c>
       <c r="D27" t="n">
-        <v>231.5766236450166</v>
+        <v>373.651138966039</v>
       </c>
       <c r="E27" t="n">
-        <v>231.5766236450166</v>
+        <v>237.2046480769267</v>
       </c>
       <c r="F27" t="n">
-        <v>231.5766236450166</v>
+        <v>112.7728419600585</v>
       </c>
       <c r="G27" t="n">
         <v>112.7728419600585</v>
@@ -6326,31 +6326,31 @@
         <v>1159.475285686011</v>
       </c>
       <c r="Q27" t="n">
-        <v>1470.205802830787</v>
+        <v>1523.197244510078</v>
       </c>
       <c r="R27" t="n">
         <v>1523.197244510078</v>
       </c>
       <c r="S27" t="n">
-        <v>1523.197244510078</v>
+        <v>1411.596889733879</v>
       </c>
       <c r="T27" t="n">
-        <v>1351.276140197934</v>
+        <v>1239.675785421735</v>
       </c>
       <c r="U27" t="n">
-        <v>1141.295630839943</v>
+        <v>1239.675785421735</v>
       </c>
       <c r="V27" t="n">
-        <v>918.7556292110103</v>
+        <v>1239.675785421735</v>
       </c>
       <c r="W27" t="n">
-        <v>688.6383833442972</v>
+        <v>1009.558539555022</v>
       </c>
       <c r="X27" t="n">
-        <v>499.3313056943088</v>
+        <v>985.5048881499206</v>
       </c>
       <c r="Y27" t="n">
-        <v>320.017088769816</v>
+        <v>806.1906712254279</v>
       </c>
     </row>
     <row r="28">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>595.4154880381199</v>
+        <v>100.2673046008696</v>
       </c>
       <c r="C28" t="n">
-        <v>595.4154880381199</v>
+        <v>100.2673046008696</v>
       </c>
       <c r="D28" t="n">
-        <v>595.4154880381199</v>
+        <v>100.2673046008696</v>
       </c>
       <c r="E28" t="n">
-        <v>595.4154880381199</v>
+        <v>100.2673046008696</v>
       </c>
       <c r="F28" t="n">
-        <v>445.2085230458757</v>
+        <v>100.2673046008696</v>
       </c>
       <c r="G28" t="n">
-        <v>278.0074877386093</v>
+        <v>30.46394489020156</v>
       </c>
       <c r="H28" t="n">
-        <v>131.8912292840636</v>
+        <v>30.46394489020156</v>
       </c>
       <c r="I28" t="n">
         <v>30.46394489020156</v>
@@ -6390,19 +6390,19 @@
         <v>275.3991511126933</v>
       </c>
       <c r="L28" t="n">
-        <v>592.9664897114596</v>
+        <v>399.3803983707723</v>
       </c>
       <c r="M28" t="n">
-        <v>941.0387165219381</v>
+        <v>747.4526251812508</v>
       </c>
       <c r="N28" t="n">
-        <v>1016.806934907635</v>
+        <v>1088.576125461534</v>
       </c>
       <c r="O28" t="n">
-        <v>1278.497686790431</v>
+        <v>1397.158380321255</v>
       </c>
       <c r="P28" t="n">
-        <v>1523.197244510078</v>
+        <v>1433.353801658698</v>
       </c>
       <c r="Q28" t="n">
         <v>1523.197244510078</v>
@@ -6414,22 +6414,22 @@
         <v>1523.197244510078</v>
       </c>
       <c r="T28" t="n">
-        <v>1523.197244510078</v>
+        <v>1291.977453940543</v>
       </c>
       <c r="U28" t="n">
-        <v>1237.815890129795</v>
+        <v>1291.977453940543</v>
       </c>
       <c r="V28" t="n">
-        <v>1237.815890129795</v>
+        <v>1025.998108761367</v>
       </c>
       <c r="W28" t="n">
-        <v>1237.815890129795</v>
+        <v>742.6677066925445</v>
       </c>
       <c r="X28" t="n">
-        <v>1003.735567912778</v>
+        <v>508.5873844755275</v>
       </c>
       <c r="Y28" t="n">
-        <v>780.6235067294211</v>
+        <v>285.4753232921709</v>
       </c>
     </row>
     <row r="29">
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>30.46394489020156</v>
+        <v>715.1511807029639</v>
       </c>
       <c r="C29" t="n">
-        <v>30.46394489020156</v>
+        <v>715.1511807029639</v>
       </c>
       <c r="D29" t="n">
-        <v>30.46394489020156</v>
+        <v>330.5054118872875</v>
       </c>
       <c r="E29" t="n">
-        <v>30.46394489020156</v>
+        <v>330.5054118872875</v>
       </c>
       <c r="F29" t="n">
-        <v>30.46394489020156</v>
+        <v>330.5054118872875</v>
       </c>
       <c r="G29" t="n">
-        <v>30.46394489020156</v>
+        <v>330.5054118872875</v>
       </c>
       <c r="H29" t="n">
-        <v>30.46394489020156</v>
+        <v>30.46394489020157</v>
       </c>
       <c r="I29" t="n">
-        <v>30.46394489020156</v>
+        <v>30.46394489020157</v>
       </c>
       <c r="J29" t="n">
-        <v>109.2391580090922</v>
+        <v>109.2391580090923</v>
       </c>
       <c r="K29" t="n">
-        <v>260.2828189667938</v>
+        <v>260.2828189667941</v>
       </c>
       <c r="L29" t="n">
-        <v>471.6519817866121</v>
+        <v>471.6519817866125</v>
       </c>
       <c r="M29" t="n">
-        <v>727.4260362398824</v>
+        <v>727.4260362398827</v>
       </c>
       <c r="N29" t="n">
-        <v>990.3377577439894</v>
+        <v>990.3377577439895</v>
       </c>
       <c r="O29" t="n">
         <v>1229.929921250789</v>
@@ -6490,25 +6490,25 @@
         <v>1523.197244510078</v>
       </c>
       <c r="S29" t="n">
-        <v>1523.197244510078</v>
+        <v>1410.177899880276</v>
       </c>
       <c r="T29" t="n">
-        <v>1309.972929777826</v>
+        <v>1196.953585148023</v>
       </c>
       <c r="U29" t="n">
-        <v>1054.408002157979</v>
+        <v>941.3886575281769</v>
       </c>
       <c r="V29" t="n">
-        <v>712.3011928614975</v>
+        <v>715.1511807029639</v>
       </c>
       <c r="W29" t="n">
-        <v>712.3011928614975</v>
+        <v>715.1511807029639</v>
       </c>
       <c r="X29" t="n">
-        <v>327.6554240458212</v>
+        <v>715.1511807029639</v>
       </c>
       <c r="Y29" t="n">
-        <v>30.46394489020156</v>
+        <v>715.1511807029639</v>
       </c>
     </row>
     <row r="30">
@@ -6518,52 +6518,52 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>181.1181753301094</v>
+        <v>410.1460235811402</v>
       </c>
       <c r="C30" t="n">
-        <v>30.46394489020156</v>
+        <v>410.1460235811402</v>
       </c>
       <c r="D30" t="n">
-        <v>30.46394489020156</v>
+        <v>410.1460235811402</v>
       </c>
       <c r="E30" t="n">
-        <v>30.46394489020156</v>
+        <v>273.6995326920279</v>
       </c>
       <c r="F30" t="n">
-        <v>30.46394489020156</v>
+        <v>149.2677265751597</v>
       </c>
       <c r="G30" t="n">
-        <v>30.46394489020156</v>
+        <v>30.46394489020157</v>
       </c>
       <c r="H30" t="n">
-        <v>30.46394489020156</v>
+        <v>30.46394489020157</v>
       </c>
       <c r="I30" t="n">
-        <v>30.46394489020156</v>
+        <v>30.46394489020157</v>
       </c>
       <c r="J30" t="n">
-        <v>65.1503216375315</v>
+        <v>259.8853166172589</v>
       </c>
       <c r="K30" t="n">
-        <v>175.2355003347222</v>
+        <v>369.9704953144497</v>
       </c>
       <c r="L30" t="n">
-        <v>353.3682601987927</v>
+        <v>548.1032551785202</v>
       </c>
       <c r="M30" t="n">
-        <v>573.8227532926538</v>
+        <v>768.5577482723813</v>
       </c>
       <c r="N30" t="n">
-        <v>809.4776400311279</v>
+        <v>1004.212635010855</v>
       </c>
       <c r="O30" t="n">
-        <v>1010.612955598596</v>
+        <v>1205.347950578323</v>
       </c>
       <c r="P30" t="n">
-        <v>1159.475285686011</v>
+        <v>1354.210280665738</v>
       </c>
       <c r="Q30" t="n">
-        <v>1470.205802830787</v>
+        <v>1523.197244510078</v>
       </c>
       <c r="R30" t="n">
         <v>1523.197244510078</v>
@@ -6572,22 +6572,22 @@
         <v>1411.596889733879</v>
       </c>
       <c r="T30" t="n">
-        <v>1239.675785421735</v>
+        <v>1239.675785421736</v>
       </c>
       <c r="U30" t="n">
         <v>1029.695276063744</v>
       </c>
       <c r="V30" t="n">
-        <v>807.155274434811</v>
+        <v>807.1552744348114</v>
       </c>
       <c r="W30" t="n">
-        <v>701.5358043455517</v>
+        <v>577.0380285680983</v>
       </c>
       <c r="X30" t="n">
-        <v>512.2287266955634</v>
+        <v>561.9423580221015</v>
       </c>
       <c r="Y30" t="n">
-        <v>332.9145097710707</v>
+        <v>561.9423580221015</v>
       </c>
     </row>
     <row r="31">
@@ -6597,49 +6597,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>597.4664403495807</v>
+        <v>299.0922645913301</v>
       </c>
       <c r="C31" t="n">
-        <v>427.2613224155699</v>
+        <v>299.0922645913301</v>
       </c>
       <c r="D31" t="n">
-        <v>427.2613224155699</v>
+        <v>299.0922645913301</v>
       </c>
       <c r="E31" t="n">
-        <v>427.2613224155699</v>
+        <v>299.0922645913301</v>
       </c>
       <c r="F31" t="n">
-        <v>343.7812386520137</v>
+        <v>299.0922645913301</v>
       </c>
       <c r="G31" t="n">
-        <v>176.5802033447472</v>
+        <v>131.8912292840636</v>
       </c>
       <c r="H31" t="n">
-        <v>30.46394489020156</v>
+        <v>131.8912292840636</v>
       </c>
       <c r="I31" t="n">
-        <v>30.46394489020156</v>
+        <v>30.46394489020157</v>
       </c>
       <c r="J31" t="n">
-        <v>73.65709338876894</v>
+        <v>30.46394489020157</v>
       </c>
       <c r="K31" t="n">
-        <v>275.3991511126933</v>
+        <v>232.206002614126</v>
       </c>
       <c r="L31" t="n">
-        <v>592.9664897114596</v>
+        <v>549.7733412128922</v>
       </c>
       <c r="M31" t="n">
-        <v>941.0387165219381</v>
+        <v>897.8455680233708</v>
       </c>
       <c r="N31" t="n">
-        <v>1282.162216802222</v>
+        <v>973.6137864090675</v>
       </c>
       <c r="O31" t="n">
-        <v>1338.942922126473</v>
+        <v>1188.65424393905</v>
       </c>
       <c r="P31" t="n">
-        <v>1433.353801658697</v>
+        <v>1433.353801658698</v>
       </c>
       <c r="Q31" t="n">
         <v>1523.197244510078</v>
@@ -6648,25 +6648,25 @@
         <v>1523.197244510078</v>
       </c>
       <c r="S31" t="n">
-        <v>1523.197244510078</v>
+        <v>1338.732402904746</v>
       </c>
       <c r="T31" t="n">
-        <v>1523.197244510078</v>
+        <v>1107.512612335211</v>
       </c>
       <c r="U31" t="n">
-        <v>1523.197244510078</v>
+        <v>1107.512612335211</v>
       </c>
       <c r="V31" t="n">
-        <v>1523.197244510078</v>
+        <v>841.5332671560351</v>
       </c>
       <c r="W31" t="n">
-        <v>1239.866842441256</v>
+        <v>558.2028650872128</v>
       </c>
       <c r="X31" t="n">
-        <v>1005.786520224239</v>
+        <v>522.2043257746867</v>
       </c>
       <c r="Y31" t="n">
-        <v>782.674459040882</v>
+        <v>299.0922645913301</v>
       </c>
     </row>
     <row r="32">
@@ -6700,7 +6700,7 @@
         <v>30.46394489020156</v>
       </c>
       <c r="J32" t="n">
-        <v>109.2391580090922</v>
+        <v>109.2391580090921</v>
       </c>
       <c r="K32" t="n">
         <v>260.2828189667939</v>
@@ -6709,10 +6709,10 @@
         <v>471.6519817866122</v>
       </c>
       <c r="M32" t="n">
-        <v>727.4260362398825</v>
+        <v>727.4260362398823</v>
       </c>
       <c r="N32" t="n">
-        <v>990.3377577439892</v>
+        <v>990.3377577439891</v>
       </c>
       <c r="O32" t="n">
         <v>1229.929921250788</v>
@@ -6727,25 +6727,25 @@
         <v>1523.197244510078</v>
       </c>
       <c r="S32" t="n">
-        <v>1523.197244510078</v>
+        <v>1410.177899880275</v>
       </c>
       <c r="T32" t="n">
-        <v>1523.197244510078</v>
+        <v>1410.177899880275</v>
       </c>
       <c r="U32" t="n">
-        <v>1267.632316890231</v>
+        <v>1154.612972260429</v>
       </c>
       <c r="V32" t="n">
-        <v>925.5255075937497</v>
+        <v>812.5061629639471</v>
       </c>
       <c r="W32" t="n">
-        <v>554.5264725620372</v>
+        <v>441.5071279322345</v>
       </c>
       <c r="X32" t="n">
-        <v>169.880703746361</v>
+        <v>441.5071279322345</v>
       </c>
       <c r="Y32" t="n">
-        <v>169.880703746361</v>
+        <v>415.1097137058778</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>690.8892213995676</v>
+        <v>722.0554389486726</v>
       </c>
       <c r="C33" t="n">
-        <v>540.2349909596599</v>
+        <v>571.4012085087649</v>
       </c>
       <c r="D33" t="n">
-        <v>410.1460235811401</v>
+        <v>441.3122411302452</v>
       </c>
       <c r="E33" t="n">
-        <v>273.6995326920278</v>
+        <v>304.8657502411329</v>
       </c>
       <c r="F33" t="n">
-        <v>149.2677265751597</v>
+        <v>225.4344771522923</v>
       </c>
       <c r="G33" t="n">
-        <v>30.46394489020156</v>
+        <v>106.6306954673342</v>
       </c>
       <c r="H33" t="n">
         <v>30.46394489020156</v>
@@ -6788,16 +6788,16 @@
         <v>353.3682601987927</v>
       </c>
       <c r="M33" t="n">
-        <v>573.8227532926538</v>
+        <v>729.1452331085251</v>
       </c>
       <c r="N33" t="n">
-        <v>809.4776400311279</v>
+        <v>1106.136551124769</v>
       </c>
       <c r="O33" t="n">
-        <v>1010.612955598596</v>
+        <v>1307.271866692237</v>
       </c>
       <c r="P33" t="n">
-        <v>1159.475285686011</v>
+        <v>1456.134196779652</v>
       </c>
       <c r="Q33" t="n">
         <v>1523.197244510078</v>
@@ -6806,25 +6806,25 @@
         <v>1523.197244510078</v>
       </c>
       <c r="S33" t="n">
-        <v>1411.596889733879</v>
+        <v>1523.197244510078</v>
       </c>
       <c r="T33" t="n">
-        <v>1411.596889733879</v>
+        <v>1523.197244510078</v>
       </c>
       <c r="U33" t="n">
-        <v>1252.117018631735</v>
+        <v>1313.216735152087</v>
       </c>
       <c r="V33" t="n">
-        <v>1252.117018631735</v>
+        <v>1090.676733523154</v>
       </c>
       <c r="W33" t="n">
-        <v>1021.999772765022</v>
+        <v>1090.676733523154</v>
       </c>
       <c r="X33" t="n">
-        <v>1021.999772765022</v>
+        <v>901.3696558731654</v>
       </c>
       <c r="Y33" t="n">
-        <v>842.685555840529</v>
+        <v>722.0554389486726</v>
       </c>
     </row>
     <row r="34">
@@ -6834,7 +6834,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>200.6690628242123</v>
+        <v>30.46394489020156</v>
       </c>
       <c r="C34" t="n">
         <v>30.46394489020156</v>
@@ -6858,25 +6858,25 @@
         <v>30.46394489020156</v>
       </c>
       <c r="J34" t="n">
-        <v>44.92607479076258</v>
+        <v>30.46394489020156</v>
       </c>
       <c r="K34" t="n">
-        <v>81.8130597720056</v>
+        <v>67.35092987144458</v>
       </c>
       <c r="L34" t="n">
-        <v>399.3803983707718</v>
+        <v>384.9182684702108</v>
       </c>
       <c r="M34" t="n">
-        <v>747.4526251812504</v>
+        <v>732.9904952806894</v>
       </c>
       <c r="N34" t="n">
-        <v>1088.576125461534</v>
+        <v>1074.113995560973</v>
       </c>
       <c r="O34" t="n">
-        <v>1397.158380321255</v>
+        <v>1382.696250420694</v>
       </c>
       <c r="P34" t="n">
-        <v>1433.353801658697</v>
+        <v>1523.197244510078</v>
       </c>
       <c r="Q34" t="n">
         <v>1523.197244510078</v>
@@ -6885,25 +6885,25 @@
         <v>1523.197244510078</v>
       </c>
       <c r="S34" t="n">
-        <v>1454.648505360812</v>
+        <v>1523.197244510078</v>
       </c>
       <c r="T34" t="n">
-        <v>1454.648505360812</v>
+        <v>1322.347429918857</v>
       </c>
       <c r="U34" t="n">
-        <v>1169.267150980529</v>
+        <v>1036.966075538573</v>
       </c>
       <c r="V34" t="n">
-        <v>903.287805801353</v>
+        <v>770.9867303593975</v>
       </c>
       <c r="W34" t="n">
-        <v>619.9574037325306</v>
+        <v>487.6563282905751</v>
       </c>
       <c r="X34" t="n">
-        <v>385.8770815155136</v>
+        <v>253.5760060735582</v>
       </c>
       <c r="Y34" t="n">
-        <v>385.8770815155136</v>
+        <v>30.46394489020156</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>30.46394489020157</v>
+        <v>654.533096032887</v>
       </c>
       <c r="C35" t="n">
-        <v>30.46394489020157</v>
+        <v>654.533096032887</v>
       </c>
       <c r="D35" t="n">
-        <v>30.46394489020157</v>
+        <v>654.533096032887</v>
       </c>
       <c r="E35" t="n">
-        <v>30.46394489020157</v>
+        <v>269.8873272172106</v>
       </c>
       <c r="F35" t="n">
-        <v>30.46394489020157</v>
+        <v>269.8873272172106</v>
       </c>
       <c r="G35" t="n">
         <v>30.46394489020157</v>
@@ -6937,19 +6937,19 @@
         <v>30.46394489020157</v>
       </c>
       <c r="J35" t="n">
-        <v>109.2391580090922</v>
+        <v>109.2391580090923</v>
       </c>
       <c r="K35" t="n">
-        <v>260.282818966794</v>
+        <v>260.2828189667941</v>
       </c>
       <c r="L35" t="n">
-        <v>471.6519817866122</v>
+        <v>471.6519817866125</v>
       </c>
       <c r="M35" t="n">
-        <v>727.4260362398824</v>
+        <v>727.4260362398827</v>
       </c>
       <c r="N35" t="n">
-        <v>990.3377577439894</v>
+        <v>990.3377577439895</v>
       </c>
       <c r="O35" t="n">
         <v>1229.929921250789</v>
@@ -6964,25 +6964,25 @@
         <v>1523.197244510078</v>
       </c>
       <c r="S35" t="n">
-        <v>1523.197244510078</v>
+        <v>1410.177899880276</v>
       </c>
       <c r="T35" t="n">
-        <v>1523.197244510078</v>
+        <v>1410.177899880276</v>
       </c>
       <c r="U35" t="n">
-        <v>1267.632316890232</v>
+        <v>1410.177899880276</v>
       </c>
       <c r="V35" t="n">
-        <v>925.5255075937504</v>
+        <v>1410.177899880276</v>
       </c>
       <c r="W35" t="n">
-        <v>554.5264725620378</v>
+        <v>1039.178864848563</v>
       </c>
       <c r="X35" t="n">
-        <v>169.8807037463615</v>
+        <v>654.533096032887</v>
       </c>
       <c r="Y35" t="n">
-        <v>169.8807037463615</v>
+        <v>654.533096032887</v>
       </c>
     </row>
     <row r="36">
@@ -6992,46 +6992,46 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>266.6009089106471</v>
+        <v>168.2207543288549</v>
       </c>
       <c r="C36" t="n">
-        <v>115.9466784707393</v>
+        <v>168.2207543288549</v>
       </c>
       <c r="D36" t="n">
-        <v>115.9466784707393</v>
+        <v>168.2207543288549</v>
       </c>
       <c r="E36" t="n">
-        <v>30.46394489020157</v>
+        <v>168.2207543288549</v>
       </c>
       <c r="F36" t="n">
-        <v>30.46394489020157</v>
+        <v>43.78894821198672</v>
       </c>
       <c r="G36" t="n">
-        <v>30.46394489020157</v>
+        <v>36.60609138292592</v>
       </c>
       <c r="H36" t="n">
-        <v>30.46394489020157</v>
+        <v>36.60609138292592</v>
       </c>
       <c r="I36" t="n">
         <v>30.46394489020157</v>
       </c>
       <c r="J36" t="n">
-        <v>65.1503216375315</v>
+        <v>167.4813597741124</v>
       </c>
       <c r="K36" t="n">
-        <v>175.2355003347222</v>
+        <v>277.5665384713032</v>
       </c>
       <c r="L36" t="n">
-        <v>552.2268183509666</v>
+        <v>455.6992983353737</v>
       </c>
       <c r="M36" t="n">
-        <v>772.6813114448278</v>
+        <v>676.1537914292348</v>
       </c>
       <c r="N36" t="n">
-        <v>1008.336198183302</v>
+        <v>1053.145109445479</v>
       </c>
       <c r="O36" t="n">
-        <v>1209.47151375077</v>
+        <v>1254.280425012947</v>
       </c>
       <c r="P36" t="n">
         <v>1403.142755100362</v>
@@ -7043,25 +7043,25 @@
         <v>1523.197244510078</v>
       </c>
       <c r="S36" t="n">
-        <v>1411.596889733879</v>
+        <v>1523.197244510078</v>
       </c>
       <c r="T36" t="n">
-        <v>1239.675785421736</v>
+        <v>1351.276140197935</v>
       </c>
       <c r="U36" t="n">
-        <v>1239.675785421736</v>
+        <v>1141.295630839943</v>
       </c>
       <c r="V36" t="n">
-        <v>1017.135783792803</v>
+        <v>918.7556292110105</v>
       </c>
       <c r="W36" t="n">
-        <v>787.0185379260895</v>
+        <v>688.6383833442974</v>
       </c>
       <c r="X36" t="n">
-        <v>597.7114602761012</v>
+        <v>499.331305694309</v>
       </c>
       <c r="Y36" t="n">
-        <v>418.3972433516084</v>
+        <v>320.0170887698163</v>
       </c>
     </row>
     <row r="37">
@@ -7071,46 +7071,46 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>30.46394489020157</v>
+        <v>693.4672022009659</v>
       </c>
       <c r="C37" t="n">
-        <v>30.46394489020157</v>
+        <v>523.2620842669551</v>
       </c>
       <c r="D37" t="n">
-        <v>30.46394489020157</v>
+        <v>445.2085230458757</v>
       </c>
       <c r="E37" t="n">
-        <v>30.46394489020157</v>
+        <v>445.2085230458757</v>
       </c>
       <c r="F37" t="n">
-        <v>30.46394489020157</v>
+        <v>445.2085230458757</v>
       </c>
       <c r="G37" t="n">
-        <v>30.46394489020157</v>
+        <v>278.0074877386093</v>
       </c>
       <c r="H37" t="n">
-        <v>30.46394489020157</v>
+        <v>131.8912292840636</v>
       </c>
       <c r="I37" t="n">
         <v>30.46394489020157</v>
       </c>
       <c r="J37" t="n">
-        <v>44.92607479076327</v>
+        <v>30.46394489020157</v>
       </c>
       <c r="K37" t="n">
-        <v>81.81305977200628</v>
+        <v>232.206002614126</v>
       </c>
       <c r="L37" t="n">
-        <v>399.3803983707725</v>
+        <v>549.7733412128922</v>
       </c>
       <c r="M37" t="n">
-        <v>747.4526251812511</v>
+        <v>897.8455680233708</v>
       </c>
       <c r="N37" t="n">
-        <v>1088.576125461535</v>
+        <v>1238.969068303654</v>
       </c>
       <c r="O37" t="n">
-        <v>1397.158380321255</v>
+        <v>1295.749773627906</v>
       </c>
       <c r="P37" t="n">
         <v>1433.353801658698</v>
@@ -7125,22 +7125,22 @@
         <v>1262.178958650072</v>
       </c>
       <c r="T37" t="n">
-        <v>1030.959168080536</v>
+        <v>1262.178958650072</v>
       </c>
       <c r="U37" t="n">
-        <v>802.8857533215563</v>
+        <v>976.7976042697882</v>
       </c>
       <c r="V37" t="n">
-        <v>536.9064081423805</v>
+        <v>976.7976042697882</v>
       </c>
       <c r="W37" t="n">
-        <v>253.5760060735582</v>
+        <v>693.4672022009659</v>
       </c>
       <c r="X37" t="n">
-        <v>253.5760060735582</v>
+        <v>693.4672022009659</v>
       </c>
       <c r="Y37" t="n">
-        <v>30.46394489020157</v>
+        <v>693.4672022009659</v>
       </c>
     </row>
     <row r="38">
@@ -7150,46 +7150,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1232.235436919711</v>
+        <v>554.5264725620374</v>
       </c>
       <c r="C38" t="n">
-        <v>1232.235436919711</v>
+        <v>554.5264725620374</v>
       </c>
       <c r="D38" t="n">
-        <v>1232.235436919711</v>
+        <v>554.5264725620374</v>
       </c>
       <c r="E38" t="n">
-        <v>847.5896681040349</v>
+        <v>415.1097137058778</v>
       </c>
       <c r="F38" t="n">
-        <v>462.9438992883586</v>
+        <v>415.1097137058778</v>
       </c>
       <c r="G38" t="n">
-        <v>78.29813047268222</v>
+        <v>30.46394489020156</v>
       </c>
       <c r="H38" t="n">
-        <v>78.29813047268222</v>
+        <v>30.46394489020156</v>
       </c>
       <c r="I38" t="n">
-        <v>30.46394489020157</v>
+        <v>30.46394489020156</v>
       </c>
       <c r="J38" t="n">
-        <v>109.2391580090923</v>
+        <v>109.2391580090921</v>
       </c>
       <c r="K38" t="n">
-        <v>260.2828189667941</v>
+        <v>260.2828189667939</v>
       </c>
       <c r="L38" t="n">
-        <v>471.6519817866124</v>
+        <v>471.6519817866121</v>
       </c>
       <c r="M38" t="n">
-        <v>727.4260362398827</v>
+        <v>727.4260362398823</v>
       </c>
       <c r="N38" t="n">
-        <v>990.3377577439894</v>
+        <v>990.3377577439891</v>
       </c>
       <c r="O38" t="n">
-        <v>1229.929921250789</v>
+        <v>1229.929921250788</v>
       </c>
       <c r="P38" t="n">
         <v>1411.99063908491</v>
@@ -7207,19 +7207,19 @@
         <v>1523.197244510078</v>
       </c>
       <c r="U38" t="n">
-        <v>1523.197244510078</v>
+        <v>1267.632316890232</v>
       </c>
       <c r="V38" t="n">
-        <v>1232.235436919711</v>
+        <v>925.5255075937499</v>
       </c>
       <c r="W38" t="n">
-        <v>1232.235436919711</v>
+        <v>554.5264725620374</v>
       </c>
       <c r="X38" t="n">
-        <v>1232.235436919711</v>
+        <v>554.5264725620374</v>
       </c>
       <c r="Y38" t="n">
-        <v>1232.235436919711</v>
+        <v>554.5264725620374</v>
       </c>
     </row>
     <row r="39">
@@ -7229,7 +7229,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>773.1981184694246</v>
+        <v>622.5438880295168</v>
       </c>
       <c r="C39" t="n">
         <v>622.5438880295168</v>
@@ -7247,31 +7247,31 @@
         <v>112.7728419600585</v>
       </c>
       <c r="H39" t="n">
-        <v>36.60609138292592</v>
+        <v>36.60609138292591</v>
       </c>
       <c r="I39" t="n">
-        <v>30.46394489020157</v>
+        <v>30.46394489020156</v>
       </c>
       <c r="J39" t="n">
-        <v>65.1503216375315</v>
+        <v>94.90309341211957</v>
       </c>
       <c r="K39" t="n">
-        <v>175.2355003347222</v>
+        <v>471.8944114283639</v>
       </c>
       <c r="L39" t="n">
-        <v>353.3682601987927</v>
+        <v>650.0271712924343</v>
       </c>
       <c r="M39" t="n">
-        <v>573.8227532926538</v>
+        <v>870.4816643862955</v>
       </c>
       <c r="N39" t="n">
-        <v>809.4776400311279</v>
+        <v>1106.13655112477</v>
       </c>
       <c r="O39" t="n">
-        <v>1010.612955598596</v>
+        <v>1307.271866692237</v>
       </c>
       <c r="P39" t="n">
-        <v>1159.475285686011</v>
+        <v>1456.134196779652</v>
       </c>
       <c r="Q39" t="n">
         <v>1523.197244510078</v>
@@ -7286,19 +7286,19 @@
         <v>1523.197244510078</v>
       </c>
       <c r="U39" t="n">
-        <v>1377.651700406032</v>
+        <v>1523.197244510078</v>
       </c>
       <c r="V39" t="n">
-        <v>1155.111698777099</v>
+        <v>1373.078762911672</v>
       </c>
       <c r="W39" t="n">
-        <v>924.9944529103859</v>
+        <v>1142.961517044959</v>
       </c>
       <c r="X39" t="n">
-        <v>924.9944529103859</v>
+        <v>953.654439394971</v>
       </c>
       <c r="Y39" t="n">
-        <v>924.9944529103859</v>
+        <v>774.3402224704781</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>706.1210147862076</v>
+        <v>304.7205336690878</v>
       </c>
       <c r="C40" t="n">
-        <v>535.9158968521969</v>
+        <v>304.7205336690878</v>
       </c>
       <c r="D40" t="n">
-        <v>380.2827837547116</v>
+        <v>304.7205336690878</v>
       </c>
       <c r="E40" t="n">
-        <v>380.2827837547116</v>
+        <v>149.1617215282903</v>
       </c>
       <c r="F40" t="n">
-        <v>380.2827837547116</v>
+        <v>149.1617215282903</v>
       </c>
       <c r="G40" t="n">
-        <v>278.0074877386093</v>
+        <v>131.8912292840636</v>
       </c>
       <c r="H40" t="n">
         <v>131.8912292840636</v>
       </c>
       <c r="I40" t="n">
-        <v>30.46394489020157</v>
+        <v>30.46394489020156</v>
       </c>
       <c r="J40" t="n">
-        <v>30.46394489020157</v>
+        <v>73.65709338876894</v>
       </c>
       <c r="K40" t="n">
-        <v>232.206002614126</v>
+        <v>275.3991511126933</v>
       </c>
       <c r="L40" t="n">
-        <v>489.2238412221531</v>
+        <v>399.3803983707721</v>
       </c>
       <c r="M40" t="n">
-        <v>837.2960680326316</v>
+        <v>747.4526251812506</v>
       </c>
       <c r="N40" t="n">
-        <v>1178.419568312915</v>
+        <v>1088.576125461534</v>
       </c>
       <c r="O40" t="n">
-        <v>1487.001823172636</v>
+        <v>1397.158380321255</v>
       </c>
       <c r="P40" t="n">
-        <v>1523.197244510078</v>
+        <v>1433.353801658697</v>
       </c>
       <c r="Q40" t="n">
         <v>1523.197244510078</v>
       </c>
       <c r="R40" t="n">
-        <v>1446.643800255404</v>
+        <v>1523.197244510078</v>
       </c>
       <c r="S40" t="n">
-        <v>1446.643800255404</v>
+        <v>1338.732402904746</v>
       </c>
       <c r="T40" t="n">
-        <v>1446.643800255404</v>
+        <v>1107.51261233521</v>
       </c>
       <c r="U40" t="n">
-        <v>1446.643800255404</v>
+        <v>822.131257954927</v>
       </c>
       <c r="V40" t="n">
-        <v>1446.643800255404</v>
+        <v>822.131257954927</v>
       </c>
       <c r="W40" t="n">
-        <v>1163.313398186581</v>
+        <v>538.8008558861047</v>
       </c>
       <c r="X40" t="n">
-        <v>929.2330759695643</v>
+        <v>304.7205336690878</v>
       </c>
       <c r="Y40" t="n">
-        <v>706.1210147862076</v>
+        <v>304.7205336690878</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>799.7554825215541</v>
+        <v>415.1097137058779</v>
       </c>
       <c r="C41" t="n">
-        <v>415.1097137058778</v>
+        <v>415.1097137058779</v>
       </c>
       <c r="D41" t="n">
-        <v>30.46394489020156</v>
+        <v>415.1097137058779</v>
       </c>
       <c r="E41" t="n">
-        <v>30.46394489020156</v>
+        <v>415.1097137058779</v>
       </c>
       <c r="F41" t="n">
-        <v>30.46394489020156</v>
+        <v>415.1097137058779</v>
       </c>
       <c r="G41" t="n">
         <v>30.46394489020156</v>
@@ -7411,22 +7411,22 @@
         <v>30.46394489020156</v>
       </c>
       <c r="J41" t="n">
-        <v>109.2391580090921</v>
+        <v>109.2391580090923</v>
       </c>
       <c r="K41" t="n">
-        <v>260.2828189667939</v>
+        <v>260.2828189667944</v>
       </c>
       <c r="L41" t="n">
-        <v>471.6519817866122</v>
+        <v>471.6519817866126</v>
       </c>
       <c r="M41" t="n">
-        <v>727.4260362398825</v>
+        <v>727.4260362398827</v>
       </c>
       <c r="N41" t="n">
-        <v>990.337757743989</v>
+        <v>990.3377577439895</v>
       </c>
       <c r="O41" t="n">
-        <v>1229.929921250788</v>
+        <v>1229.929921250789</v>
       </c>
       <c r="P41" t="n">
         <v>1411.99063908491</v>
@@ -7438,25 +7438,25 @@
         <v>1523.197244510078</v>
       </c>
       <c r="S41" t="n">
-        <v>1523.197244510078</v>
+        <v>1410.177899880276</v>
       </c>
       <c r="T41" t="n">
-        <v>1523.197244510078</v>
+        <v>1196.953585148023</v>
       </c>
       <c r="U41" t="n">
-        <v>1523.197244510078</v>
+        <v>1170.754517553267</v>
       </c>
       <c r="V41" t="n">
-        <v>1181.090435213596</v>
+        <v>1170.754517553267</v>
       </c>
       <c r="W41" t="n">
-        <v>810.0914001818837</v>
+        <v>799.7554825215542</v>
       </c>
       <c r="X41" t="n">
-        <v>810.0914001818837</v>
+        <v>799.7554825215542</v>
       </c>
       <c r="Y41" t="n">
-        <v>810.0914001818837</v>
+        <v>415.1097137058779</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>491.9381930819597</v>
+        <v>773.1981184694246</v>
       </c>
       <c r="C42" t="n">
-        <v>403.7885000705475</v>
+        <v>622.5438880295168</v>
       </c>
       <c r="D42" t="n">
-        <v>273.6995326920278</v>
+        <v>492.4549206509971</v>
       </c>
       <c r="E42" t="n">
-        <v>273.6995326920278</v>
+        <v>356.0084297618848</v>
       </c>
       <c r="F42" t="n">
-        <v>149.2677265751597</v>
+        <v>231.5766236450166</v>
       </c>
       <c r="G42" t="n">
-        <v>30.46394489020156</v>
+        <v>112.7728419600585</v>
       </c>
       <c r="H42" t="n">
-        <v>30.46394489020156</v>
+        <v>36.60609138292592</v>
       </c>
       <c r="I42" t="n">
         <v>30.46394489020156</v>
@@ -7493,22 +7493,22 @@
         <v>65.1503216375315</v>
       </c>
       <c r="K42" t="n">
-        <v>175.2355003347222</v>
+        <v>442.1416396537759</v>
       </c>
       <c r="L42" t="n">
-        <v>353.3682601987927</v>
+        <v>620.2743995178464</v>
       </c>
       <c r="M42" t="n">
-        <v>573.8227532926538</v>
+        <v>840.7288926117076</v>
       </c>
       <c r="N42" t="n">
-        <v>809.4776400311279</v>
+        <v>1076.383779350182</v>
       </c>
       <c r="O42" t="n">
-        <v>1010.612955598596</v>
+        <v>1277.519094917649</v>
       </c>
       <c r="P42" t="n">
-        <v>1387.60427361484</v>
+        <v>1426.381425005064</v>
       </c>
       <c r="Q42" t="n">
         <v>1523.197244510078</v>
@@ -7520,22 +7520,22 @@
         <v>1523.197244510078</v>
       </c>
       <c r="T42" t="n">
-        <v>1523.197244510078</v>
+        <v>1351.276140197934</v>
       </c>
       <c r="U42" t="n">
-        <v>1313.216735152087</v>
+        <v>1351.276140197934</v>
       </c>
       <c r="V42" t="n">
-        <v>1090.676733523154</v>
+        <v>1351.276140197934</v>
       </c>
       <c r="W42" t="n">
-        <v>860.5594876564408</v>
+        <v>1293.615747484867</v>
       </c>
       <c r="X42" t="n">
-        <v>671.2524100064525</v>
+        <v>1104.308669834879</v>
       </c>
       <c r="Y42" t="n">
-        <v>491.9381930819597</v>
+        <v>924.9944529103859</v>
       </c>
     </row>
     <row r="43">
@@ -7545,46 +7545,46 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>245.5181463040596</v>
+        <v>454.4258206647797</v>
       </c>
       <c r="C43" t="n">
-        <v>245.5181463040596</v>
+        <v>454.4258206647797</v>
       </c>
       <c r="D43" t="n">
-        <v>89.88503320657432</v>
+        <v>298.7927075672945</v>
       </c>
       <c r="E43" t="n">
-        <v>30.46394489020156</v>
+        <v>298.7927075672945</v>
       </c>
       <c r="F43" t="n">
-        <v>30.46394489020156</v>
+        <v>298.7927075672945</v>
       </c>
       <c r="G43" t="n">
-        <v>30.46394489020156</v>
+        <v>278.0074877386093</v>
       </c>
       <c r="H43" t="n">
-        <v>30.46394489020156</v>
+        <v>131.8912292840636</v>
       </c>
       <c r="I43" t="n">
         <v>30.46394489020156</v>
       </c>
       <c r="J43" t="n">
-        <v>30.46394489020156</v>
+        <v>73.65709338876896</v>
       </c>
       <c r="K43" t="n">
-        <v>232.206002614126</v>
+        <v>171.6565026233866</v>
       </c>
       <c r="L43" t="n">
-        <v>489.2238412221527</v>
+        <v>489.2238412221529</v>
       </c>
       <c r="M43" t="n">
-        <v>837.2960680326312</v>
+        <v>837.2960680326314</v>
       </c>
       <c r="N43" t="n">
         <v>1178.419568312915</v>
       </c>
       <c r="O43" t="n">
-        <v>1487.001823172635</v>
+        <v>1487.001823172636</v>
       </c>
       <c r="P43" t="n">
         <v>1523.197244510078</v>
@@ -7593,28 +7593,28 @@
         <v>1523.197244510078</v>
       </c>
       <c r="R43" t="n">
-        <v>1446.643800255403</v>
+        <v>1523.197244510078</v>
       </c>
       <c r="S43" t="n">
-        <v>1262.178958650071</v>
+        <v>1523.197244510078</v>
       </c>
       <c r="T43" t="n">
-        <v>1030.959168080536</v>
+        <v>1523.197244510078</v>
       </c>
       <c r="U43" t="n">
-        <v>745.5778137002522</v>
+        <v>1237.815890129795</v>
       </c>
       <c r="V43" t="n">
-        <v>479.5984685210765</v>
+        <v>971.836544950619</v>
       </c>
       <c r="W43" t="n">
-        <v>479.5984685210765</v>
+        <v>688.5061428817967</v>
       </c>
       <c r="X43" t="n">
-        <v>245.5181463040596</v>
+        <v>454.4258206647797</v>
       </c>
       <c r="Y43" t="n">
-        <v>245.5181463040596</v>
+        <v>454.4258206647797</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>847.5896681040347</v>
+        <v>712.301192861498</v>
       </c>
       <c r="C44" t="n">
-        <v>847.5896681040347</v>
+        <v>712.301192861498</v>
       </c>
       <c r="D44" t="n">
-        <v>847.5896681040347</v>
+        <v>712.301192861498</v>
       </c>
       <c r="E44" t="n">
-        <v>462.9438992883585</v>
+        <v>712.301192861498</v>
       </c>
       <c r="F44" t="n">
-        <v>462.9438992883585</v>
+        <v>712.301192861498</v>
       </c>
       <c r="G44" t="n">
-        <v>78.2981304726822</v>
+        <v>327.6554240458216</v>
       </c>
       <c r="H44" t="n">
-        <v>78.2981304726822</v>
+        <v>30.46394489020157</v>
       </c>
       <c r="I44" t="n">
-        <v>30.46394489020156</v>
+        <v>30.46394489020157</v>
       </c>
       <c r="J44" t="n">
-        <v>109.2391580090921</v>
+        <v>109.239158009092</v>
       </c>
       <c r="K44" t="n">
-        <v>260.2828189667939</v>
+        <v>260.2828189667937</v>
       </c>
       <c r="L44" t="n">
-        <v>471.6519817866122</v>
+        <v>471.651981786612</v>
       </c>
       <c r="M44" t="n">
         <v>727.4260362398825</v>
       </c>
       <c r="N44" t="n">
-        <v>990.3377577439892</v>
+        <v>990.3377577439893</v>
       </c>
       <c r="O44" t="n">
-        <v>1229.929921250788</v>
+        <v>1229.929921250789</v>
       </c>
       <c r="P44" t="n">
-        <v>1411.990639084909</v>
+        <v>1411.99063908491</v>
       </c>
       <c r="Q44" t="n">
-        <v>1517.398370785865</v>
+        <v>1517.398370785866</v>
       </c>
       <c r="R44" t="n">
         <v>1523.197244510078</v>
       </c>
       <c r="S44" t="n">
-        <v>1410.177899880275</v>
+        <v>1523.197244510078</v>
       </c>
       <c r="T44" t="n">
-        <v>1196.953585148023</v>
+        <v>1309.972929777826</v>
       </c>
       <c r="U44" t="n">
-        <v>941.3886575281764</v>
+        <v>1054.40800215798</v>
       </c>
       <c r="V44" t="n">
-        <v>847.5896681040347</v>
+        <v>712.301192861498</v>
       </c>
       <c r="W44" t="n">
-        <v>847.5896681040347</v>
+        <v>712.301192861498</v>
       </c>
       <c r="X44" t="n">
-        <v>847.5896681040347</v>
+        <v>712.301192861498</v>
       </c>
       <c r="Y44" t="n">
-        <v>847.5896681040347</v>
+        <v>712.301192861498</v>
       </c>
     </row>
     <row r="45">
@@ -7703,49 +7703,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>767.0559719767002</v>
+        <v>317.5646662192216</v>
       </c>
       <c r="C45" t="n">
-        <v>616.4017415367924</v>
+        <v>166.9104357793138</v>
       </c>
       <c r="D45" t="n">
-        <v>486.3127741582728</v>
+        <v>166.9104357793138</v>
       </c>
       <c r="E45" t="n">
-        <v>349.8662832691605</v>
+        <v>30.46394489020157</v>
       </c>
       <c r="F45" t="n">
-        <v>225.4344771522923</v>
+        <v>30.46394489020157</v>
       </c>
       <c r="G45" t="n">
-        <v>106.6306954673342</v>
+        <v>30.46394489020157</v>
       </c>
       <c r="H45" t="n">
-        <v>30.46394489020156</v>
+        <v>30.46394489020157</v>
       </c>
       <c r="I45" t="n">
-        <v>30.46394489020156</v>
+        <v>30.46394489020157</v>
       </c>
       <c r="J45" t="n">
-        <v>259.8853166172589</v>
+        <v>65.1503216375315</v>
       </c>
       <c r="K45" t="n">
-        <v>369.9704953144497</v>
+        <v>175.2355003347222</v>
       </c>
       <c r="L45" t="n">
-        <v>548.1032551785202</v>
+        <v>353.3682601987927</v>
       </c>
       <c r="M45" t="n">
-        <v>768.5577482723813</v>
+        <v>573.8227532926538</v>
       </c>
       <c r="N45" t="n">
-        <v>1004.212635010855</v>
+        <v>809.4776400311279</v>
       </c>
       <c r="O45" t="n">
-        <v>1205.347950578323</v>
+        <v>1010.612955598596</v>
       </c>
       <c r="P45" t="n">
-        <v>1354.210280665738</v>
+        <v>1387.60427361484</v>
       </c>
       <c r="Q45" t="n">
         <v>1523.197244510078</v>
@@ -7754,25 +7754,25 @@
         <v>1523.197244510078</v>
       </c>
       <c r="S45" t="n">
-        <v>1523.197244510078</v>
+        <v>1411.596889733879</v>
       </c>
       <c r="T45" t="n">
-        <v>1523.197244510078</v>
+        <v>1239.675785421736</v>
       </c>
       <c r="U45" t="n">
-        <v>1313.216735152087</v>
+        <v>1029.695276063744</v>
       </c>
       <c r="V45" t="n">
-        <v>1090.676733523154</v>
+        <v>807.1552744348114</v>
       </c>
       <c r="W45" t="n">
-        <v>860.5594876564408</v>
+        <v>807.1552744348114</v>
       </c>
       <c r="X45" t="n">
-        <v>860.5594876564408</v>
+        <v>617.8481967848231</v>
       </c>
       <c r="Y45" t="n">
-        <v>860.5594876564408</v>
+        <v>438.5339798603304</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>30.46394489020156</v>
+        <v>234.1742911289049</v>
       </c>
       <c r="C46" t="n">
-        <v>30.46394489020156</v>
+        <v>234.1742911289049</v>
       </c>
       <c r="D46" t="n">
-        <v>30.46394489020156</v>
+        <v>186.0227570309991</v>
       </c>
       <c r="E46" t="n">
-        <v>30.46394489020156</v>
+        <v>30.46394489020157</v>
       </c>
       <c r="F46" t="n">
-        <v>30.46394489020156</v>
+        <v>30.46394489020157</v>
       </c>
       <c r="G46" t="n">
-        <v>30.46394489020156</v>
+        <v>30.46394489020157</v>
       </c>
       <c r="H46" t="n">
-        <v>30.46394489020156</v>
+        <v>30.46394489020157</v>
       </c>
       <c r="I46" t="n">
-        <v>30.46394489020156</v>
+        <v>30.46394489020157</v>
       </c>
       <c r="J46" t="n">
-        <v>30.46394489020156</v>
+        <v>73.65709338876896</v>
       </c>
       <c r="K46" t="n">
-        <v>232.206002614126</v>
+        <v>275.3991511126933</v>
       </c>
       <c r="L46" t="n">
-        <v>489.2238412221527</v>
+        <v>592.9664897114596</v>
       </c>
       <c r="M46" t="n">
-        <v>837.2960680326312</v>
+        <v>804.3037706936328</v>
       </c>
       <c r="N46" t="n">
-        <v>1178.419568312915</v>
+        <v>880.0719890793296</v>
       </c>
       <c r="O46" t="n">
-        <v>1487.001823172635</v>
+        <v>1188.65424393905</v>
       </c>
       <c r="P46" t="n">
-        <v>1523.197244510078</v>
+        <v>1433.353801658698</v>
       </c>
       <c r="Q46" t="n">
         <v>1523.197244510078</v>
       </c>
       <c r="R46" t="n">
-        <v>1446.643800255403</v>
+        <v>1523.197244510078</v>
       </c>
       <c r="S46" t="n">
-        <v>1262.178958650071</v>
+        <v>1523.197244510078</v>
       </c>
       <c r="T46" t="n">
-        <v>1262.178958650071</v>
+        <v>1291.977453940543</v>
       </c>
       <c r="U46" t="n">
-        <v>976.7976042697877</v>
+        <v>1006.59609956026</v>
       </c>
       <c r="V46" t="n">
-        <v>710.8182590906119</v>
+        <v>740.6167543810839</v>
       </c>
       <c r="W46" t="n">
-        <v>427.4878570217896</v>
+        <v>457.2863523122615</v>
       </c>
       <c r="X46" t="n">
-        <v>193.4075348047727</v>
+        <v>457.2863523122615</v>
       </c>
       <c r="Y46" t="n">
-        <v>30.46394489020156</v>
+        <v>234.1742911289049</v>
       </c>
     </row>
   </sheetData>
@@ -8218,7 +8218,7 @@
         <v>46.74967917541601</v>
       </c>
       <c r="K5" t="n">
-        <v>36.75248193446048</v>
+        <v>36.75248193446046</v>
       </c>
       <c r="L5" t="n">
         <v>21.36627421377045</v>
@@ -8233,7 +8233,7 @@
         <v>8.75547455640654</v>
       </c>
       <c r="P5" t="n">
-        <v>30.1247672499621</v>
+        <v>30.12476724996209</v>
       </c>
       <c r="Q5" t="n">
         <v>54.25101662582001</v>
@@ -8315,7 +8315,7 @@
         <v>1.698038997342408</v>
       </c>
       <c r="Q6" t="n">
-        <v>33.91032407045576</v>
+        <v>33.91032407045577</v>
       </c>
       <c r="R6" t="n">
         <v>66.92938550216252</v>
@@ -8391,7 +8391,7 @@
         <v>37.0102385447647</v>
       </c>
       <c r="P7" t="n">
-        <v>44.18408838467262</v>
+        <v>44.18408838467263</v>
       </c>
       <c r="Q7" t="n">
         <v>67.08779846355691</v>
@@ -8713,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>50.10311736083155</v>
+        <v>50.10311736083148</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,7 +8768,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>9.996493671228009</v>
+        <v>9.996493671227952</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>47.08138215850113</v>
+        <v>47.08138215850109</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8850,25 +8850,25 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K13" t="n">
-        <v>131.0594330892263</v>
+        <v>131.0594330892264</v>
       </c>
       <c r="L13" t="n">
-        <v>113.9881414229083</v>
+        <v>83.2137912789991</v>
       </c>
       <c r="M13" t="n">
-        <v>111.4192326297103</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>85.33607785090034</v>
+        <v>106.5092612162225</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>121.0203994082975</v>
       </c>
       <c r="P13" t="n">
-        <v>11.76994589361107</v>
+        <v>11.76994589361099</v>
       </c>
       <c r="Q13" t="n">
-        <v>44.64592635853825</v>
+        <v>44.64592635853821</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>50.10311736083155</v>
+        <v>50.10311736083148</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>9.996493671228009</v>
+        <v>9.996493671227952</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>47.08138215850113</v>
+        <v>47.08138215850109</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9087,22 +9087,22 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K16" t="n">
-        <v>9.16780143111859</v>
+        <v>9.167801431118534</v>
       </c>
       <c r="L16" t="n">
-        <v>113.9881414229082</v>
+        <v>36.39710159664263</v>
       </c>
       <c r="M16" t="n">
-        <v>111.4192326297102</v>
+        <v>111.4192326297104</v>
       </c>
       <c r="N16" t="n">
-        <v>106.5092612162223</v>
+        <v>106.5092612162225</v>
       </c>
       <c r="O16" t="n">
-        <v>43.42935958203152</v>
+        <v>121.0203994082975</v>
       </c>
       <c r="P16" t="n">
-        <v>11.76994589361107</v>
+        <v>11.76994589361099</v>
       </c>
       <c r="Q16" t="n">
         <v>101.9350150692923</v>
@@ -9187,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>50.10311736083156</v>
+        <v>50.10311736083148</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>9.996493671228023</v>
+        <v>9.996493671227952</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>47.08138215850114</v>
+        <v>47.08138215850109</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9324,25 +9324,25 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K19" t="n">
-        <v>131.0594330892262</v>
+        <v>131.0594330892264</v>
       </c>
       <c r="L19" t="n">
-        <v>92.81495805758617</v>
+        <v>113.9881414229084</v>
       </c>
       <c r="M19" t="n">
-        <v>111.4192326297102</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>106.5092612162223</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>17.57459011174895</v>
       </c>
       <c r="P19" t="n">
-        <v>11.76994589361108</v>
+        <v>133.6615775517189</v>
       </c>
       <c r="Q19" t="n">
-        <v>44.64592635853826</v>
+        <v>101.9350150692923</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>50.10311736083156</v>
+        <v>50.10311736083148</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>9.996493671228023</v>
+        <v>9.996493671227952</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>47.08138215850114</v>
+        <v>47.08138215850109</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9561,25 +9561,25 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K22" t="n">
-        <v>131.0594330892262</v>
+        <v>102.8539917385151</v>
       </c>
       <c r="L22" t="n">
-        <v>20.14349890494678</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>111.4192326297102</v>
+        <v>111.4192326297104</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>106.5092612162225</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>121.0203994082975</v>
       </c>
       <c r="P22" t="n">
-        <v>133.6615775517186</v>
+        <v>11.76994589361099</v>
       </c>
       <c r="Q22" t="n">
-        <v>101.9350150692923</v>
+        <v>44.64592635853821</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9716,10 +9716,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>49.42674185315492</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9734,10 +9734,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>230.4333211402319</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>15.69543584396104</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9795,22 +9795,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>8.843093535602549</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K25" t="n">
         <v>166.520275497658</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>101.6537887609627</v>
       </c>
       <c r="M25" t="n">
         <v>278.4750710187352</v>
       </c>
       <c r="N25" t="n">
-        <v>158.9738704353925</v>
+        <v>268.0356382773604</v>
       </c>
       <c r="O25" t="n">
-        <v>254.3449995307766</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>210.6102387699041</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>246.1287569841928</v>
+        <v>299.6554657511533</v>
       </c>
       <c r="R27" t="n">
-        <v>71.01380490566048</v>
+        <v>17.48709613870015</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10038,22 +10038,22 @@
         <v>166.520275497658</v>
       </c>
       <c r="L28" t="n">
-        <v>253.4605344048249</v>
+        <v>57.91902800009025</v>
       </c>
       <c r="M28" t="n">
         <v>278.4750710187352</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>268.0356382773604</v>
       </c>
       <c r="O28" t="n">
-        <v>206.9798450086303</v>
+        <v>254.3449995307766</v>
       </c>
       <c r="P28" t="n">
-        <v>210.6102387699041</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>11.18406269416032</v>
+        <v>101.9350150692923</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>246.1287569841926</v>
+        <v>102.9534506201157</v>
       </c>
       <c r="R30" t="n">
-        <v>71.01380490566048</v>
+        <v>17.48709613870015</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,7 +10269,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>52.4725364634484</v>
+        <v>8.843093535602549</v>
       </c>
       <c r="K31" t="n">
         <v>166.520275497658</v>
@@ -10281,13 +10281,13 @@
         <v>278.4750710187352</v>
       </c>
       <c r="N31" t="n">
-        <v>268.0356382773604</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>159.8583355613444</v>
       </c>
       <c r="P31" t="n">
-        <v>58.80349312604183</v>
+        <v>210.6102387699041</v>
       </c>
       <c r="Q31" t="n">
         <v>101.9350150692923</v>
@@ -10436,10 +10436,10 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>156.8913937534053</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>142.7640719977476</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10448,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.6554657511528</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>17.48709613870015</v>
@@ -10506,7 +10506,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>23.45130555637127</v>
+        <v>8.843093535602549</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -10524,10 +10524,10 @@
         <v>254.3449995307766</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>105.3591643959006</v>
       </c>
       <c r="Q34" t="n">
-        <v>101.9350150692923</v>
+        <v>11.18406269416032</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10664,25 +10664,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>103.3646849864454</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>200.8672304567414</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>142.7640719977479</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>45.26152652745196</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -10743,10 +10743,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>23.45130555637194</v>
+        <v>8.843093535602549</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>166.520275497658</v>
       </c>
       <c r="L37" t="n">
         <v>253.4605344048249</v>
@@ -10758,10 +10758,10 @@
         <v>268.0356382773604</v>
       </c>
       <c r="O37" t="n">
-        <v>254.3449995307766</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>102.4329360538881</v>
       </c>
       <c r="Q37" t="n">
         <v>101.9350150692923</v>
@@ -10901,10 +10901,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>30.05330482281623</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>269.602160928337</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.6554657511535</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>17.48709613870015</v>
@@ -10980,13 +10980,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>8.843093535602549</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K40" t="n">
         <v>166.520275497658</v>
       </c>
       <c r="L40" t="n">
-        <v>192.2994233030682</v>
+        <v>57.91902800009002</v>
       </c>
       <c r="M40" t="n">
         <v>278.4750710187352</v>
@@ -11001,7 +11001,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>11.18406269416032</v>
+        <v>101.9350150692923</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11141,7 +11141,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>269.602160928337</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11156,10 +11156,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>230.4333211402318</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>69.22214461092121</v>
+        <v>30.05330482281623</v>
       </c>
       <c r="R42" t="n">
         <v>17.48709613870015</v>
@@ -11217,13 +11217,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>8.843093535602549</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K43" t="n">
-        <v>166.520275497658</v>
+        <v>61.72972146805522</v>
       </c>
       <c r="L43" t="n">
-        <v>192.2994233030678</v>
+        <v>253.4605344048249</v>
       </c>
       <c r="M43" t="n">
         <v>278.4750710187352</v>
@@ -11375,7 +11375,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>196.7020151310378</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11393,10 +11393,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>230.4333211402319</v>
       </c>
       <c r="Q45" t="n">
-        <v>102.9534506201152</v>
+        <v>69.22214461092166</v>
       </c>
       <c r="R45" t="n">
         <v>17.48709613870015</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>8.843093535602549</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K46" t="n">
         <v>166.520275497658</v>
       </c>
       <c r="L46" t="n">
-        <v>192.2994233030678</v>
+        <v>253.4605344048249</v>
       </c>
       <c r="M46" t="n">
-        <v>278.4750710187352</v>
+        <v>140.3589641214571</v>
       </c>
       <c r="N46" t="n">
-        <v>268.0356382773604</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>254.3449995307766</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>210.6102387699041</v>
       </c>
       <c r="Q46" t="n">
-        <v>11.18406269416032</v>
+        <v>101.9350150692923</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23266,16 +23266,16 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
-        <v>398.5576896346209</v>
+        <v>372.8963141158391</v>
       </c>
       <c r="F11" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
-        <v>381.9365646527953</v>
+        <v>407.5979401715768</v>
       </c>
       <c r="H11" t="n">
-        <v>184.2729538648624</v>
+        <v>306.1645855229701</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>10.29802119272735</v>
+        <v>10.29802119272709</v>
       </c>
       <c r="T11" t="n">
-        <v>93.10018522791886</v>
+        <v>93.1001852279186</v>
       </c>
       <c r="U11" t="n">
         <v>253.0805472469234</v>
@@ -23326,7 +23326,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
-        <v>392.5258019886049</v>
+        <v>270.634170330497</v>
       </c>
     </row>
     <row r="12">
@@ -23348,16 +23348,16 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F12" t="n">
-        <v>111.972783911827</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>80.00854575966318</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>22.49179773586699</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23387,16 +23387,16 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>119.3379681607525</v>
       </c>
       <c r="T12" t="n">
-        <v>50.2315069381397</v>
+        <v>172.1231385962474</v>
       </c>
       <c r="U12" t="n">
-        <v>207.9120630020701</v>
+        <v>86.02043134396216</v>
       </c>
       <c r="V12" t="n">
-        <v>220.3146016126436</v>
+        <v>109.1532174705956</v>
       </c>
       <c r="W12" t="n">
         <v>227.816073408046</v>
@@ -23405,7 +23405,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y12" t="n">
-        <v>177.5210747552478</v>
+        <v>55.62944309713994</v>
       </c>
     </row>
     <row r="13">
@@ -23427,16 +23427,16 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
-        <v>33.8610437810491</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
-        <v>49.10521909538443</v>
+        <v>165.9286346603149</v>
       </c>
       <c r="H13" t="n">
-        <v>26.31635778086029</v>
+        <v>148.207989438968</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>112.4303652576383</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>93.75581532553741</v>
+        <v>93.75581532553738</v>
       </c>
       <c r="S13" t="n">
-        <v>189.5843005223167</v>
+        <v>67.69266886420881</v>
       </c>
       <c r="T13" t="n">
-        <v>230.6150159536303</v>
+        <v>108.7233842955224</v>
       </c>
       <c r="U13" t="n">
-        <v>282.5493377295417</v>
+        <v>160.6577060714338</v>
       </c>
       <c r="V13" t="n">
-        <v>263.319551727384</v>
+        <v>155.9574025629227</v>
       </c>
       <c r="W13" t="n">
         <v>280.4970980481341</v>
@@ -23500,22 +23500,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
-        <v>381.5867174954989</v>
+        <v>274.2245683310375</v>
       </c>
       <c r="E14" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F14" t="n">
-        <v>412.725494085322</v>
+        <v>290.8338624272141</v>
       </c>
       <c r="G14" t="n">
-        <v>381.9365646527953</v>
+        <v>407.5979401715768</v>
       </c>
       <c r="H14" t="n">
-        <v>184.2729538648625</v>
+        <v>306.1645855229701</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>81.70077364567955</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.189652850835</v>
+        <v>10.29802119272709</v>
       </c>
       <c r="T14" t="n">
-        <v>93.1001852279189</v>
+        <v>214.9918168860265</v>
       </c>
       <c r="U14" t="n">
-        <v>131.1889155888158</v>
+        <v>253.0805472469234</v>
       </c>
       <c r="V14" t="n">
-        <v>338.6857412035168</v>
+        <v>216.7941095454089</v>
       </c>
       <c r="W14" t="n">
         <v>367.2890446813954</v>
@@ -23573,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>28.38673943844411</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C15" t="n">
         <v>149.1476881355087</v>
@@ -23582,7 +23582,7 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E15" t="n">
-        <v>25.1662133184049</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F15" t="n">
         <v>123.1874880556995</v>
@@ -23591,10 +23591,10 @@
         <v>118.0923966805212</v>
       </c>
       <c r="H15" t="n">
-        <v>80.00854575966319</v>
+        <v>80.00854575966318</v>
       </c>
       <c r="I15" t="n">
-        <v>22.49179773586701</v>
+        <v>22.49179773586699</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23624,25 +23624,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>119.3379681607525</v>
       </c>
       <c r="T15" t="n">
-        <v>172.1231385962474</v>
+        <v>50.23150693813947</v>
       </c>
       <c r="U15" t="n">
-        <v>207.9120630020701</v>
+        <v>100.5499138376086</v>
       </c>
       <c r="V15" t="n">
         <v>220.3146016126436</v>
       </c>
       <c r="W15" t="n">
-        <v>227.816073408046</v>
+        <v>105.9244417499381</v>
       </c>
       <c r="X15" t="n">
-        <v>187.4140068734885</v>
+        <v>65.52237521538056</v>
       </c>
       <c r="Y15" t="n">
-        <v>55.62944309714022</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="16">
@@ -23664,16 +23664,16 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
-        <v>38.92925987422637</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>44.03700300220732</v>
+        <v>58.56648549585356</v>
       </c>
       <c r="H16" t="n">
-        <v>26.31635778086033</v>
+        <v>26.31635778086006</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>112.4303652576383</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>93.75581532553741</v>
+        <v>93.75581532553738</v>
       </c>
       <c r="S16" t="n">
-        <v>189.5843005223167</v>
+        <v>67.69266886420881</v>
       </c>
       <c r="T16" t="n">
         <v>230.6150159536303</v>
@@ -23718,7 +23718,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X16" t="n">
-        <v>231.7395189948467</v>
+        <v>109.8478873367388</v>
       </c>
       <c r="Y16" t="n">
         <v>220.8809405715231</v>
@@ -23734,7 +23734,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
-        <v>389.2437464820987</v>
+        <v>267.3521148239908</v>
       </c>
       <c r="D17" t="n">
         <v>381.5867174954989</v>
@@ -23749,10 +23749,10 @@
         <v>407.5979401715768</v>
       </c>
       <c r="H17" t="n">
-        <v>184.2729538648625</v>
+        <v>198.8024363585087</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>81.70077364567955</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.189652850835</v>
+        <v>10.29802119272709</v>
       </c>
       <c r="T17" t="n">
-        <v>93.1001852279189</v>
+        <v>214.9918168860265</v>
       </c>
       <c r="U17" t="n">
-        <v>131.1889155888158</v>
+        <v>253.0805472469234</v>
       </c>
       <c r="V17" t="n">
-        <v>313.0243656847353</v>
+        <v>216.7941095454089</v>
       </c>
       <c r="W17" t="n">
         <v>367.2890446813954</v>
@@ -23816,22 +23816,22 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D18" t="n">
-        <v>120.1270370582172</v>
+        <v>6.896446046626565</v>
       </c>
       <c r="E18" t="n">
-        <v>13.19039432211353</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F18" t="n">
-        <v>1.295856397591905</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>80.00854575966318</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>22.49179773586699</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23873,10 +23873,10 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W18" t="n">
-        <v>227.816073408046</v>
+        <v>116.654689265998</v>
       </c>
       <c r="X18" t="n">
-        <v>187.4140068734885</v>
+        <v>65.52237521538056</v>
       </c>
       <c r="Y18" t="n">
         <v>177.5210747552478</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>169.7496046654646</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C19" t="n">
         <v>168.5030667546707</v>
@@ -23910,7 +23910,7 @@
         <v>148.207989438968</v>
       </c>
       <c r="I19" t="n">
-        <v>112.4303652576384</v>
+        <v>112.4303652576383</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,19 +23940,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>67.6926688642091</v>
+        <v>175.9779666833927</v>
       </c>
       <c r="T19" t="n">
-        <v>108.7233842955227</v>
+        <v>108.7233842955224</v>
       </c>
       <c r="U19" t="n">
-        <v>282.5493377295417</v>
+        <v>160.6577060714338</v>
       </c>
       <c r="V19" t="n">
-        <v>263.319551727384</v>
+        <v>141.4279200692761</v>
       </c>
       <c r="W19" t="n">
-        <v>158.6054663900265</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
         <v>231.7395189948467</v>
@@ -23971,25 +23971,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
-        <v>267.3521148239911</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
-        <v>398.5576896346209</v>
+        <v>276.666057976513</v>
       </c>
       <c r="F20" t="n">
-        <v>412.725494085322</v>
+        <v>290.8338624272141</v>
       </c>
       <c r="G20" t="n">
-        <v>285.7063085134693</v>
+        <v>300.2357910071154</v>
       </c>
       <c r="H20" t="n">
         <v>306.1645855229701</v>
       </c>
       <c r="I20" t="n">
-        <v>81.70077364567959</v>
+        <v>81.70077364567955</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,16 +24019,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.189652850835</v>
+        <v>10.29802119272709</v>
       </c>
       <c r="T20" t="n">
-        <v>107.6296677215655</v>
+        <v>214.9918168860265</v>
       </c>
       <c r="U20" t="n">
         <v>253.0805472469234</v>
       </c>
       <c r="V20" t="n">
-        <v>216.7941095454092</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
         <v>367.2890446813954</v>
@@ -24056,19 +24056,19 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E21" t="n">
-        <v>135.0820259802211</v>
+        <v>126.4209853337033</v>
       </c>
       <c r="F21" t="n">
         <v>123.1874880556995</v>
       </c>
       <c r="G21" t="n">
-        <v>118.0923966805212</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>80.00854575966319</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>22.49179773586702</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24104,19 +24104,19 @@
         <v>172.1231385962474</v>
       </c>
       <c r="U21" t="n">
-        <v>86.0204313439625</v>
+        <v>207.9120630020701</v>
       </c>
       <c r="V21" t="n">
-        <v>98.42296995453607</v>
+        <v>98.42296995453573</v>
       </c>
       <c r="W21" t="n">
-        <v>105.9244417499385</v>
+        <v>105.9244417499381</v>
       </c>
       <c r="X21" t="n">
         <v>187.4140068734885</v>
       </c>
       <c r="Y21" t="n">
-        <v>70.15892559078678</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="22">
@@ -24135,19 +24135,19 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
-        <v>32.11159236128195</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
-        <v>44.03700300220738</v>
+        <v>44.03700300220704</v>
       </c>
       <c r="H22" t="n">
-        <v>40.8458402745069</v>
+        <v>148.207989438968</v>
       </c>
       <c r="I22" t="n">
-        <v>112.4303652576384</v>
+        <v>5.068216093176957</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>93.75581532553741</v>
+        <v>93.75581532553738</v>
       </c>
       <c r="S22" t="n">
         <v>189.5843005223167</v>
       </c>
       <c r="T22" t="n">
-        <v>108.7233842955227</v>
+        <v>230.6150159536303</v>
       </c>
       <c r="U22" t="n">
-        <v>282.5493377295417</v>
+        <v>160.6577060714338</v>
       </c>
       <c r="V22" t="n">
-        <v>263.319551727384</v>
+        <v>141.4279200692761</v>
       </c>
       <c r="W22" t="n">
         <v>280.4970980481341</v>
@@ -24208,7 +24208,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
-        <v>8.444435354579127</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
         <v>381.5867174954989</v>
@@ -24217,13 +24217,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F23" t="n">
-        <v>412.725494085322</v>
+        <v>77.31746084420297</v>
       </c>
       <c r="G23" t="n">
-        <v>25.9077677531157</v>
+        <v>25.90776775311576</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>297.041052327115</v>
       </c>
       <c r="I23" t="n">
         <v>47.35584372665583</v>
@@ -24259,7 +24259,7 @@
         <v>111.8891511835047</v>
       </c>
       <c r="T23" t="n">
-        <v>172.7250906709257</v>
+        <v>211.0920715849299</v>
       </c>
       <c r="U23" t="n">
         <v>253.009278343648</v>
@@ -24271,10 +24271,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
-        <v>385.5580790162737</v>
+        <v>4.758767888754221</v>
       </c>
       <c r="Y23" t="n">
-        <v>11.72649086108532</v>
+        <v>11.72649086108538</v>
       </c>
     </row>
     <row r="24">
@@ -24290,16 +24290,16 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>125.5045407507346</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>117.6157438681085</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>75.40508307136129</v>
@@ -24335,19 +24335,19 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>110.4843512284371</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>170.2018932690224</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>172.8890251197884</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>26.89014444599448</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5290249541938</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.6550958700002</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>100.4130115499234</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>75.78790981212809</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>181.4600801106355</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24448,7 +24448,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
-        <v>0.7874063679793721</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
         <v>398.5576896346209</v>
@@ -24460,10 +24460,10 @@
         <v>406.7070788806353</v>
       </c>
       <c r="H26" t="n">
-        <v>297.041052327115</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>47.35584372665583</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,22 +24496,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>211.0920715849299</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>253.009278343648</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>338.6857412035168</v>
+        <v>148.5562164270878</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>4.758767888754164</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
-        <v>155.4966534848661</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="27">
@@ -24521,22 +24521,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>62.72231062300033</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>117.6157438681085</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -24572,22 +24572,22 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>110.4843512284371</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>207.8807042644113</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>163.6008919824379</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24612,16 +24612,16 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
-        <v>7.047780096835083</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>96.4236988406325</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.6550958700002</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>100.4130115499234</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,16 +24654,16 @@
         <v>182.6201931892788</v>
       </c>
       <c r="T28" t="n">
-        <v>228.9075926638401</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>282.5275408364805</v>
       </c>
       <c r="V28" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24685,7 +24685,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
-        <v>381.5867174954989</v>
+        <v>0.7874063679793153</v>
       </c>
       <c r="E29" t="n">
         <v>398.5576896346209</v>
@@ -24697,7 +24697,7 @@
         <v>406.7070788806353</v>
       </c>
       <c r="H29" t="n">
-        <v>297.041052327115</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>47.35584372665583</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>111.8891511835047</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24739,16 +24739,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>114.710639146556</v>
       </c>
       <c r="W29" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
-        <v>4.758767888754221</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
-        <v>98.30623762454144</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="30">
@@ -24761,19 +24761,19 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D30" t="n">
         <v>128.7880777047345</v>
       </c>
       <c r="E30" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>117.6157438681085</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>75.40508307136129</v>
@@ -24821,13 +24821,13 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>123.2527980196793</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>172.4692930329517</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="31">
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
         <v>154.0767819665104</v>
@@ -24849,16 +24849,16 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
-        <v>73.10739251323615</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.6550958700002</v>
       </c>
       <c r="I31" t="n">
-        <v>100.4130115499234</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,22 +24888,22 @@
         <v>75.78790981212809</v>
       </c>
       <c r="S31" t="n">
-        <v>182.6201931892788</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>228.9075926638401</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>282.5275408364805</v>
       </c>
       <c r="V31" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>196.1009650754459</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>258.4672069866851</v>
+        <v>15.69048712676346</v>
       </c>
       <c r="C32" t="n">
         <v>389.2437464820987</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>111.8891511835047</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>211.0920715849299</v>
@@ -24982,10 +24982,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>4.758767888754278</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
-        <v>392.5258019886049</v>
+        <v>366.3923619045117</v>
       </c>
     </row>
     <row r="33">
@@ -24995,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -25007,13 +25007,13 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>44.55052769774731</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>75.40508307136129</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>6.080725027797108</v>
@@ -25046,22 +25046,22 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>110.4843512284371</v>
       </c>
       <c r="T33" t="n">
         <v>170.2018932690224</v>
       </c>
       <c r="U33" t="n">
-        <v>49.99563187328903</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X33" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
         <v>154.0767819665104</v>
@@ -25125,10 +25125,10 @@
         <v>75.78790981212809</v>
       </c>
       <c r="S34" t="n">
-        <v>114.7569414315058</v>
+        <v>182.6201931892788</v>
       </c>
       <c r="T34" t="n">
-        <v>228.9075926638401</v>
+        <v>30.06627621853104</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>258.4672069866846</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
         <v>389.2437464820987</v>
@@ -25162,13 +25162,13 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
-        <v>398.5576896346209</v>
+        <v>17.75837850710127</v>
       </c>
       <c r="F35" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
-        <v>406.7070788806353</v>
+        <v>169.6779303768963</v>
       </c>
       <c r="H35" t="n">
         <v>297.041052327115</v>
@@ -25204,16 +25204,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>111.8891511835047</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>211.0920715849299</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>253.009278343648</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25235,25 +25235,25 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D36" t="n">
         <v>128.7880777047345</v>
       </c>
       <c r="E36" t="n">
-        <v>50.4541197354888</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F36" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>117.6157438681085</v>
+        <v>110.5047156073383</v>
       </c>
       <c r="H36" t="n">
         <v>75.40508307136129</v>
       </c>
       <c r="I36" t="n">
-        <v>6.080725027797108</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25283,13 +25283,13 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>110.4843512284371</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>207.8807042644113</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25314,10 +25314,10 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C37" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>154.0767819665104</v>
+        <v>76.80375635764184</v>
       </c>
       <c r="E37" t="n">
         <v>154.0032240193895</v>
@@ -25326,13 +25326,13 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5290249541938</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.6550958700002</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>100.4130115499234</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,13 +25365,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>228.9075926638401</v>
       </c>
       <c r="U37" t="n">
-        <v>56.73486022509056</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="38">
@@ -25399,19 +25399,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
-        <v>17.75837850710127</v>
+        <v>260.5350983670229</v>
       </c>
       <c r="F38" t="n">
-        <v>31.92618295780238</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
-        <v>25.90776775311565</v>
+        <v>25.90776775311576</v>
       </c>
       <c r="H38" t="n">
         <v>297.041052327115</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>47.35584372665583</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25447,13 +25447,13 @@
         <v>211.0920715849299</v>
       </c>
       <c r="U38" t="n">
-        <v>253.009278343648</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>50.63355168905321</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>385.5580790162737</v>
@@ -25472,7 +25472,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -25526,19 +25526,19 @@
         <v>170.2018932690224</v>
       </c>
       <c r="U39" t="n">
-        <v>63.79061560140534</v>
+        <v>207.8807042644113</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>71.69730483022204</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25551,22 +25551,22 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
-        <v>64.27648189825251</v>
+        <v>148.4312376324094</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.6550958700002</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>75.78790981212809</v>
       </c>
       <c r="S40" t="n">
-        <v>182.6201931892788</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>228.9075926638401</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>282.5275408364805</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>263.319551727384</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="41">
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>386.2572397705566</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
-        <v>8.444435354579184</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
-        <v>0.787406367979429</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
         <v>398.5576896346209</v>
@@ -25642,7 +25642,7 @@
         <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
-        <v>406.7070788806353</v>
+        <v>25.90776775311571</v>
       </c>
       <c r="H41" t="n">
         <v>297.041052327115</v>
@@ -25678,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>111.8891511835047</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>211.0920715849299</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>253.009278343648</v>
+        <v>227.0722014248393</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
-        <v>392.5258019886049</v>
+        <v>11.72649086108532</v>
       </c>
     </row>
     <row r="42">
@@ -25706,16 +25706,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>61.87949205421064</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -25724,10 +25724,10 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>75.40508307136129</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>6.080725027797108</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25760,16 +25760,16 @@
         <v>110.4843512284371</v>
       </c>
       <c r="T42" t="n">
-        <v>170.2018932690224</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>207.8807042644113</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>170.7322846221092</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>95.17634658618047</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F43" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5290249541938</v>
+        <v>144.9516573237954</v>
       </c>
       <c r="H43" t="n">
-        <v>144.6550958700002</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>100.4130115499234</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>75.78790981212809</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>182.6201931892788</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>228.9075926638401</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25873,19 +25873,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
-        <v>17.75837850710138</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>25.90776775311576</v>
+        <v>25.90776775311565</v>
       </c>
       <c r="H44" t="n">
-        <v>297.041052327115</v>
+        <v>2.821487963051254</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>47.35584372665583</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>111.8891511835047</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25924,7 +25924,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>245.8247416736165</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>367.2890446813954</v>
@@ -25943,25 +25943,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>57.7098905736086</v>
+        <v>30.51875059185409</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>117.6157438681085</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>75.40508307136129</v>
       </c>
       <c r="I45" t="n">
         <v>6.080725027797108</v>
@@ -25994,10 +25994,10 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>110.4843512284371</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>170.2018932690224</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -26006,13 +26006,13 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X45" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26028,10 +26028,10 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
-        <v>154.0767819665104</v>
+        <v>106.4067632095837</v>
       </c>
       <c r="E46" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>155.7526754391568</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>75.78790981212809</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>182.6201931892788</v>
       </c>
       <c r="T46" t="n">
-        <v>228.9075926638401</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
-        <v>59.5667865560977</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>309418.5849435845</v>
+        <v>309418.5849435847</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>309418.5849435845</v>
+        <v>309418.5849435848</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>309418.5849435845</v>
+        <v>309418.5849435847</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>309418.5849435845</v>
+        <v>309418.5849435847</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>514772.7250264356</v>
+        <v>514772.7250264355</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>514772.7250264355</v>
+        <v>514772.7250264356</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>514772.7250264353</v>
+        <v>514772.7250264355</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>514772.7250264355</v>
+        <v>514772.7250264356</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>514772.7250264356</v>
+        <v>514772.7250264355</v>
       </c>
     </row>
     <row r="16">
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>76814.71169331542</v>
+        <v>76814.71169331543</v>
       </c>
       <c r="C2" t="n">
-        <v>77089.94277324762</v>
+        <v>77089.94277324763</v>
       </c>
       <c r="D2" t="n">
         <v>77089.94277324763</v>
@@ -26331,22 +26331,22 @@
         <v>112438.3072900279</v>
       </c>
       <c r="H2" t="n">
-        <v>112438.3072900279</v>
+        <v>112438.307290028</v>
       </c>
       <c r="I2" t="n">
-        <v>185850.4283827948</v>
+        <v>185850.4283827949</v>
       </c>
       <c r="J2" t="n">
-        <v>185850.428382795</v>
+        <v>185850.4283827949</v>
       </c>
       <c r="K2" t="n">
-        <v>185850.428382795</v>
+        <v>185850.4283827949</v>
       </c>
       <c r="L2" t="n">
-        <v>185850.4283827948</v>
+        <v>185850.4283827949</v>
       </c>
       <c r="M2" t="n">
-        <v>185850.428382795</v>
+        <v>185850.4283827949</v>
       </c>
       <c r="N2" t="n">
         <v>185850.4283827949</v>
@@ -26355,7 +26355,7 @@
         <v>185850.4283827949</v>
       </c>
       <c r="P2" t="n">
-        <v>185850.428382795</v>
+        <v>185850.4283827949</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>155797.254794488</v>
+        <v>155797.2547944883</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>235659.4818235553</v>
+        <v>235659.4818235549</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>30375.88217572708</v>
+        <v>30375.88217572716</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17115.73163939853</v>
+        <v>17115.73163939852</v>
       </c>
       <c r="C4" t="n">
         <v>14383.90372464131</v>
@@ -26426,16 +26426,16 @@
         <v>14383.90372464131</v>
       </c>
       <c r="E4" t="n">
+        <v>7716.195467638719</v>
+      </c>
+      <c r="F4" t="n">
         <v>7716.19546763872</v>
       </c>
-      <c r="F4" t="n">
-        <v>7716.195467638717</v>
-      </c>
       <c r="G4" t="n">
+        <v>7716.19546763872</v>
+      </c>
+      <c r="H4" t="n">
         <v>7716.195467638719</v>
-      </c>
-      <c r="H4" t="n">
-        <v>7716.195467638716</v>
       </c>
       <c r="I4" t="n">
         <v>16241.2595406513</v>
@@ -26444,7 +26444,7 @@
         <v>16241.2595406513</v>
       </c>
       <c r="K4" t="n">
-        <v>16241.2595406513</v>
+        <v>16241.25954065131</v>
       </c>
       <c r="L4" t="n">
         <v>16241.25954065129</v>
@@ -26459,7 +26459,7 @@
         <v>16241.2595406513</v>
       </c>
       <c r="P4" t="n">
-        <v>16241.2595406513</v>
+        <v>16241.25954065131</v>
       </c>
     </row>
     <row r="5">
@@ -26478,16 +26478,16 @@
         <v>38159.46666611726</v>
       </c>
       <c r="E5" t="n">
-        <v>15182.8302675488</v>
+        <v>15182.83026754882</v>
       </c>
       <c r="F5" t="n">
-        <v>15182.83026754879</v>
+        <v>15182.83026754882</v>
       </c>
       <c r="G5" t="n">
-        <v>15182.83026754879</v>
+        <v>15182.83026754882</v>
       </c>
       <c r="H5" t="n">
-        <v>15182.83026754879</v>
+        <v>15182.83026754882</v>
       </c>
       <c r="I5" t="n">
         <v>35755.33524474228</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-163952.7281613247</v>
+        <v>-165351.7619859776</v>
       </c>
       <c r="C6" t="n">
-        <v>10844.95337149448</v>
+        <v>9447.368131472762</v>
       </c>
       <c r="D6" t="n">
-        <v>24546.57238248907</v>
+        <v>23148.98714246733</v>
       </c>
       <c r="E6" t="n">
-        <v>-66257.97323964759</v>
+        <v>-67469.51445589709</v>
       </c>
       <c r="F6" t="n">
-        <v>89539.28155484046</v>
+        <v>88327.74033859123</v>
       </c>
       <c r="G6" t="n">
-        <v>89539.28155484042</v>
+        <v>88327.74033859117</v>
       </c>
       <c r="H6" t="n">
-        <v>89539.28155484043</v>
+        <v>88327.74033859123</v>
       </c>
       <c r="I6" t="n">
-        <v>-101805.648226154</v>
+        <v>-102630.8098577041</v>
       </c>
       <c r="J6" t="n">
-        <v>133853.8335974014</v>
+        <v>133028.6719658509</v>
       </c>
       <c r="K6" t="n">
-        <v>133853.8335974014</v>
+        <v>133028.6719658509</v>
       </c>
       <c r="L6" t="n">
-        <v>133853.8335974013</v>
+        <v>133028.6719658509</v>
       </c>
       <c r="M6" t="n">
-        <v>103477.9514216743</v>
+        <v>102652.7897901237</v>
       </c>
       <c r="N6" t="n">
-        <v>133853.8335974013</v>
+        <v>133028.6719658509</v>
       </c>
       <c r="O6" t="n">
-        <v>133853.8335974013</v>
+        <v>133028.6719658508</v>
       </c>
       <c r="P6" t="n">
-        <v>133853.8335974015</v>
+        <v>133028.6719658509</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>207.8837920237277</v>
       </c>
       <c r="E3" t="n">
-        <v>356.5054615933877</v>
+        <v>356.505461593388</v>
       </c>
       <c r="F3" t="n">
-        <v>356.5054615933877</v>
+        <v>356.505461593388</v>
       </c>
       <c r="G3" t="n">
-        <v>356.5054615933876</v>
+        <v>356.505461593388</v>
       </c>
       <c r="H3" t="n">
-        <v>356.5054615933876</v>
+        <v>356.505461593388</v>
       </c>
       <c r="I3" t="n">
         <v>578.1072077150959</v>
@@ -26798,25 +26798,25 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>121.8916316581077</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="F4" t="n">
-        <v>121.8916316581076</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="G4" t="n">
-        <v>121.8916316581076</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="H4" t="n">
-        <v>121.8916316581076</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="I4" t="n">
-        <v>380.7993111275196</v>
+        <v>380.7993111275195</v>
       </c>
       <c r="J4" t="n">
         <v>380.7993111275196</v>
       </c>
       <c r="K4" t="n">
-        <v>380.7993111275195</v>
+        <v>380.7993111275196</v>
       </c>
       <c r="L4" t="n">
         <v>380.7993111275194</v>
@@ -26825,13 +26825,13 @@
         <v>380.7993111275196</v>
       </c>
       <c r="N4" t="n">
+        <v>380.7993111275195</v>
+      </c>
+      <c r="O4" t="n">
         <v>380.7993111275196</v>
       </c>
-      <c r="O4" t="n">
-        <v>380.7993111275195</v>
-      </c>
       <c r="P4" t="n">
-        <v>380.7993111275195</v>
+        <v>380.7993111275196</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>148.62166956966</v>
+        <v>148.6216695696603</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>221.6017461217083</v>
+        <v>221.6017461217079</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>121.8916316581077</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>258.907679469412</v>
+        <v>258.9076794694116</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>121.8916316581077</v>
+        <v>121.8916316581081</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>121.8916316581077</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31281,7 +31281,7 @@
         <v>0.8357137367788041</v>
       </c>
       <c r="H5" t="n">
-        <v>8.558753306785929</v>
+        <v>8.558753306785931</v>
       </c>
       <c r="I5" t="n">
         <v>32.21885383716488</v>
@@ -31387,13 +31387,13 @@
         <v>85.38532582197224</v>
       </c>
       <c r="Q6" t="n">
-        <v>57.07782908545823</v>
+        <v>57.07782908545822</v>
       </c>
       <c r="R6" t="n">
         <v>27.76229207441406</v>
       </c>
       <c r="S6" t="n">
-        <v>8.305545841702699</v>
+        <v>8.305545841702701</v>
       </c>
       <c r="T6" t="n">
         <v>1.802313253488733</v>
@@ -31448,7 +31448,7 @@
         <v>26.50347951751689</v>
       </c>
       <c r="K7" t="n">
-        <v>43.55335839447932</v>
+        <v>43.55335839447933</v>
       </c>
       <c r="L7" t="n">
         <v>55.73330384845972</v>
@@ -31463,7 +31463,7 @@
         <v>52.9865114489331</v>
       </c>
       <c r="P7" t="n">
-        <v>45.33911424727332</v>
+        <v>45.33911424727331</v>
       </c>
       <c r="Q7" t="n">
         <v>31.39045259558288</v>
@@ -31472,7 +31472,7 @@
         <v>16.85562680900585</v>
       </c>
       <c r="S7" t="n">
-        <v>6.533003759171898</v>
+        <v>6.533003759171899</v>
       </c>
       <c r="T7" t="n">
         <v>1.601727577887737</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.43318778530005</v>
+        <v>1.433187785300051</v>
       </c>
       <c r="H11" t="n">
-        <v>14.67763440620414</v>
+        <v>14.67763440620415</v>
       </c>
       <c r="I11" t="n">
-        <v>55.25297209278023</v>
+        <v>55.25297209278027</v>
       </c>
       <c r="J11" t="n">
-        <v>121.6400217926102</v>
+        <v>121.6400217926103</v>
       </c>
       <c r="K11" t="n">
-        <v>182.3068607443614</v>
+        <v>182.3068607443615</v>
       </c>
       <c r="L11" t="n">
-        <v>226.1677814287378</v>
+        <v>226.167781428738</v>
       </c>
       <c r="M11" t="n">
-        <v>251.6552347055676</v>
+        <v>251.6552347055678</v>
       </c>
       <c r="N11" t="n">
-        <v>255.7272795005514</v>
+        <v>255.7272795005516</v>
       </c>
       <c r="O11" t="n">
-        <v>241.476018460474</v>
+        <v>241.4760184604742</v>
       </c>
       <c r="P11" t="n">
-        <v>206.094195010879</v>
+        <v>206.0941950108791</v>
       </c>
       <c r="Q11" t="n">
-        <v>154.7681574498209</v>
+        <v>154.768157449821</v>
       </c>
       <c r="R11" t="n">
-        <v>90.02748221835434</v>
+        <v>90.02748221835441</v>
       </c>
       <c r="S11" t="n">
-        <v>32.65876665752492</v>
+        <v>32.65876665752494</v>
       </c>
       <c r="T11" t="n">
-        <v>6.273779530150971</v>
+        <v>6.273779530150977</v>
       </c>
       <c r="U11" t="n">
-        <v>0.114655022824004</v>
+        <v>0.1146550228240041</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7668230683329471</v>
+        <v>0.7668230683329478</v>
       </c>
       <c r="H12" t="n">
-        <v>7.405896475741885</v>
+        <v>7.405896475741891</v>
       </c>
       <c r="I12" t="n">
-        <v>26.40158371234051</v>
+        <v>26.40158371234053</v>
       </c>
       <c r="J12" t="n">
-        <v>72.44796366210534</v>
+        <v>72.44796366210539</v>
       </c>
       <c r="K12" t="n">
-        <v>123.8251092404128</v>
+        <v>123.8251092404129</v>
       </c>
       <c r="L12" t="n">
-        <v>166.498140341327</v>
+        <v>166.4981403413271</v>
       </c>
       <c r="M12" t="n">
-        <v>194.2954765683963</v>
+        <v>194.2954765683964</v>
       </c>
       <c r="N12" t="n">
-        <v>199.4378996889273</v>
+        <v>199.4378996889275</v>
       </c>
       <c r="O12" t="n">
-        <v>182.4467148590236</v>
+        <v>182.4467148590237</v>
       </c>
       <c r="P12" t="n">
-        <v>146.4295734608766</v>
+        <v>146.4295734608767</v>
       </c>
       <c r="Q12" t="n">
-        <v>97.88429202088638</v>
+        <v>97.88429202088646</v>
       </c>
       <c r="R12" t="n">
-        <v>47.61029541807545</v>
+        <v>47.61029541807549</v>
       </c>
       <c r="S12" t="n">
-        <v>14.24340216837732</v>
+        <v>14.24340216837733</v>
       </c>
       <c r="T12" t="n">
-        <v>3.090835086833237</v>
+        <v>3.09083508683324</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05044888607453601</v>
+        <v>0.05044888607453606</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6428787012339777</v>
+        <v>0.6428787012339782</v>
       </c>
       <c r="H13" t="n">
-        <v>5.715776089153006</v>
+        <v>5.71577608915301</v>
       </c>
       <c r="I13" t="n">
-        <v>19.33311585165454</v>
+        <v>19.33311585165455</v>
       </c>
       <c r="J13" t="n">
-        <v>45.45152417724222</v>
+        <v>45.45152417724226</v>
       </c>
       <c r="K13" t="n">
-        <v>74.6908163797294</v>
+        <v>74.69081637972945</v>
       </c>
       <c r="L13" t="n">
-        <v>95.5785298180043</v>
+        <v>95.57852981800438</v>
       </c>
       <c r="M13" t="n">
-        <v>100.7741585943407</v>
+        <v>100.7741585943408</v>
       </c>
       <c r="N13" t="n">
-        <v>98.37797434428686</v>
+        <v>98.37797434428694</v>
       </c>
       <c r="O13" t="n">
-        <v>90.86798224350808</v>
+        <v>90.86798224350815</v>
       </c>
       <c r="P13" t="n">
-        <v>77.75325673833487</v>
+        <v>77.75325673833494</v>
       </c>
       <c r="Q13" t="n">
-        <v>53.83232470060154</v>
+        <v>53.83232470060158</v>
       </c>
       <c r="R13" t="n">
-        <v>28.90616414821139</v>
+        <v>28.90616414821141</v>
       </c>
       <c r="S13" t="n">
-        <v>11.20362245695941</v>
+        <v>11.20362245695942</v>
       </c>
       <c r="T13" t="n">
-        <v>2.746845359817904</v>
+        <v>2.746845359817906</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03506611097639883</v>
+        <v>0.03506611097639886</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.43318778530005</v>
+        <v>1.433187785300051</v>
       </c>
       <c r="H14" t="n">
-        <v>14.67763440620414</v>
+        <v>14.67763440620415</v>
       </c>
       <c r="I14" t="n">
-        <v>55.25297209278023</v>
+        <v>55.25297209278027</v>
       </c>
       <c r="J14" t="n">
-        <v>121.6400217926102</v>
+        <v>121.6400217926103</v>
       </c>
       <c r="K14" t="n">
-        <v>182.3068607443614</v>
+        <v>182.3068607443615</v>
       </c>
       <c r="L14" t="n">
-        <v>226.1677814287378</v>
+        <v>226.167781428738</v>
       </c>
       <c r="M14" t="n">
-        <v>251.6552347055676</v>
+        <v>251.6552347055678</v>
       </c>
       <c r="N14" t="n">
-        <v>255.7272795005514</v>
+        <v>255.7272795005516</v>
       </c>
       <c r="O14" t="n">
-        <v>241.476018460474</v>
+        <v>241.4760184604742</v>
       </c>
       <c r="P14" t="n">
-        <v>206.094195010879</v>
+        <v>206.0941950108791</v>
       </c>
       <c r="Q14" t="n">
-        <v>154.7681574498209</v>
+        <v>154.768157449821</v>
       </c>
       <c r="R14" t="n">
-        <v>90.02748221835434</v>
+        <v>90.02748221835441</v>
       </c>
       <c r="S14" t="n">
-        <v>32.65876665752492</v>
+        <v>32.65876665752494</v>
       </c>
       <c r="T14" t="n">
-        <v>6.273779530150971</v>
+        <v>6.273779530150977</v>
       </c>
       <c r="U14" t="n">
-        <v>0.114655022824004</v>
+        <v>0.1146550228240041</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7668230683329471</v>
+        <v>0.7668230683329478</v>
       </c>
       <c r="H15" t="n">
-        <v>7.405896475741885</v>
+        <v>7.405896475741891</v>
       </c>
       <c r="I15" t="n">
-        <v>26.40158371234051</v>
+        <v>26.40158371234053</v>
       </c>
       <c r="J15" t="n">
-        <v>72.44796366210534</v>
+        <v>72.44796366210539</v>
       </c>
       <c r="K15" t="n">
-        <v>123.8251092404128</v>
+        <v>123.8251092404129</v>
       </c>
       <c r="L15" t="n">
-        <v>166.498140341327</v>
+        <v>166.4981403413271</v>
       </c>
       <c r="M15" t="n">
-        <v>194.2954765683963</v>
+        <v>194.2954765683964</v>
       </c>
       <c r="N15" t="n">
-        <v>199.4378996889273</v>
+        <v>199.4378996889275</v>
       </c>
       <c r="O15" t="n">
-        <v>182.4467148590236</v>
+        <v>182.4467148590237</v>
       </c>
       <c r="P15" t="n">
-        <v>146.4295734608766</v>
+        <v>146.4295734608767</v>
       </c>
       <c r="Q15" t="n">
-        <v>97.88429202088638</v>
+        <v>97.88429202088646</v>
       </c>
       <c r="R15" t="n">
-        <v>47.61029541807545</v>
+        <v>47.61029541807549</v>
       </c>
       <c r="S15" t="n">
-        <v>14.24340216837732</v>
+        <v>14.24340216837733</v>
       </c>
       <c r="T15" t="n">
-        <v>3.090835086833237</v>
+        <v>3.09083508683324</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05044888607453601</v>
+        <v>0.05044888607453606</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6428787012339777</v>
+        <v>0.6428787012339782</v>
       </c>
       <c r="H16" t="n">
-        <v>5.715776089153006</v>
+        <v>5.71577608915301</v>
       </c>
       <c r="I16" t="n">
-        <v>19.33311585165454</v>
+        <v>19.33311585165455</v>
       </c>
       <c r="J16" t="n">
-        <v>45.45152417724222</v>
+        <v>45.45152417724226</v>
       </c>
       <c r="K16" t="n">
-        <v>74.6908163797294</v>
+        <v>74.69081637972945</v>
       </c>
       <c r="L16" t="n">
-        <v>95.5785298180043</v>
+        <v>95.57852981800438</v>
       </c>
       <c r="M16" t="n">
-        <v>100.7741585943407</v>
+        <v>100.7741585943408</v>
       </c>
       <c r="N16" t="n">
-        <v>98.37797434428686</v>
+        <v>98.37797434428694</v>
       </c>
       <c r="O16" t="n">
-        <v>90.86798224350808</v>
+        <v>90.86798224350815</v>
       </c>
       <c r="P16" t="n">
-        <v>77.75325673833487</v>
+        <v>77.75325673833494</v>
       </c>
       <c r="Q16" t="n">
-        <v>53.83232470060154</v>
+        <v>53.83232470060158</v>
       </c>
       <c r="R16" t="n">
-        <v>28.90616414821139</v>
+        <v>28.90616414821141</v>
       </c>
       <c r="S16" t="n">
-        <v>11.20362245695941</v>
+        <v>11.20362245695942</v>
       </c>
       <c r="T16" t="n">
-        <v>2.746845359817904</v>
+        <v>2.746845359817906</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03506611097639883</v>
+        <v>0.03506611097639886</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.43318778530005</v>
+        <v>1.433187785300051</v>
       </c>
       <c r="H17" t="n">
-        <v>14.67763440620414</v>
+        <v>14.67763440620415</v>
       </c>
       <c r="I17" t="n">
-        <v>55.25297209278022</v>
+        <v>55.25297209278027</v>
       </c>
       <c r="J17" t="n">
-        <v>121.6400217926102</v>
+        <v>121.6400217926103</v>
       </c>
       <c r="K17" t="n">
-        <v>182.3068607443613</v>
+        <v>182.3068607443615</v>
       </c>
       <c r="L17" t="n">
-        <v>226.1677814287378</v>
+        <v>226.167781428738</v>
       </c>
       <c r="M17" t="n">
-        <v>251.6552347055675</v>
+        <v>251.6552347055678</v>
       </c>
       <c r="N17" t="n">
-        <v>255.7272795005513</v>
+        <v>255.7272795005516</v>
       </c>
       <c r="O17" t="n">
-        <v>241.4760184604739</v>
+        <v>241.4760184604742</v>
       </c>
       <c r="P17" t="n">
-        <v>206.0941950108789</v>
+        <v>206.0941950108791</v>
       </c>
       <c r="Q17" t="n">
-        <v>154.7681574498208</v>
+        <v>154.768157449821</v>
       </c>
       <c r="R17" t="n">
-        <v>90.02748221835432</v>
+        <v>90.02748221835441</v>
       </c>
       <c r="S17" t="n">
-        <v>32.65876665752491</v>
+        <v>32.65876665752494</v>
       </c>
       <c r="T17" t="n">
-        <v>6.27377953015097</v>
+        <v>6.273779530150977</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1146550228240039</v>
+        <v>0.1146550228240041</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.766823068332947</v>
+        <v>0.7668230683329478</v>
       </c>
       <c r="H18" t="n">
-        <v>7.405896475741883</v>
+        <v>7.405896475741891</v>
       </c>
       <c r="I18" t="n">
-        <v>26.4015837123405</v>
+        <v>26.40158371234053</v>
       </c>
       <c r="J18" t="n">
-        <v>72.44796366210532</v>
+        <v>72.44796366210539</v>
       </c>
       <c r="K18" t="n">
-        <v>123.8251092404128</v>
+        <v>123.8251092404129</v>
       </c>
       <c r="L18" t="n">
-        <v>166.4981403413269</v>
+        <v>166.4981403413271</v>
       </c>
       <c r="M18" t="n">
-        <v>194.2954765683962</v>
+        <v>194.2954765683964</v>
       </c>
       <c r="N18" t="n">
-        <v>199.4378996889273</v>
+        <v>199.4378996889275</v>
       </c>
       <c r="O18" t="n">
-        <v>182.4467148590236</v>
+        <v>182.4467148590237</v>
       </c>
       <c r="P18" t="n">
-        <v>146.4295734608765</v>
+        <v>146.4295734608767</v>
       </c>
       <c r="Q18" t="n">
-        <v>97.88429202088636</v>
+        <v>97.88429202088646</v>
       </c>
       <c r="R18" t="n">
-        <v>47.61029541807545</v>
+        <v>47.61029541807549</v>
       </c>
       <c r="S18" t="n">
-        <v>14.24340216837732</v>
+        <v>14.24340216837733</v>
       </c>
       <c r="T18" t="n">
-        <v>3.090835086833237</v>
+        <v>3.09083508683324</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05044888607453601</v>
+        <v>0.05044888607453606</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6428787012339776</v>
+        <v>0.6428787012339782</v>
       </c>
       <c r="H19" t="n">
-        <v>5.715776089153005</v>
+        <v>5.71577608915301</v>
       </c>
       <c r="I19" t="n">
-        <v>19.33311585165453</v>
+        <v>19.33311585165455</v>
       </c>
       <c r="J19" t="n">
-        <v>45.45152417724221</v>
+        <v>45.45152417724226</v>
       </c>
       <c r="K19" t="n">
-        <v>74.69081637972938</v>
+        <v>74.69081637972945</v>
       </c>
       <c r="L19" t="n">
-        <v>95.57852981800428</v>
+        <v>95.57852981800438</v>
       </c>
       <c r="M19" t="n">
-        <v>100.7741585943407</v>
+        <v>100.7741585943408</v>
       </c>
       <c r="N19" t="n">
-        <v>98.37797434428684</v>
+        <v>98.37797434428694</v>
       </c>
       <c r="O19" t="n">
-        <v>90.86798224350807</v>
+        <v>90.86798224350815</v>
       </c>
       <c r="P19" t="n">
-        <v>77.75325673833485</v>
+        <v>77.75325673833494</v>
       </c>
       <c r="Q19" t="n">
-        <v>53.83232470060153</v>
+        <v>53.83232470060158</v>
       </c>
       <c r="R19" t="n">
-        <v>28.90616414821138</v>
+        <v>28.90616414821141</v>
       </c>
       <c r="S19" t="n">
-        <v>11.20362245695941</v>
+        <v>11.20362245695942</v>
       </c>
       <c r="T19" t="n">
-        <v>2.746845359817903</v>
+        <v>2.746845359817906</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03506611097639882</v>
+        <v>0.03506611097639886</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.43318778530005</v>
+        <v>1.433187785300051</v>
       </c>
       <c r="H20" t="n">
-        <v>14.67763440620414</v>
+        <v>14.67763440620415</v>
       </c>
       <c r="I20" t="n">
-        <v>55.25297209278022</v>
+        <v>55.25297209278027</v>
       </c>
       <c r="J20" t="n">
-        <v>121.6400217926102</v>
+        <v>121.6400217926103</v>
       </c>
       <c r="K20" t="n">
-        <v>182.3068607443613</v>
+        <v>182.3068607443615</v>
       </c>
       <c r="L20" t="n">
-        <v>226.1677814287378</v>
+        <v>226.167781428738</v>
       </c>
       <c r="M20" t="n">
-        <v>251.6552347055675</v>
+        <v>251.6552347055678</v>
       </c>
       <c r="N20" t="n">
-        <v>255.7272795005513</v>
+        <v>255.7272795005516</v>
       </c>
       <c r="O20" t="n">
-        <v>241.4760184604739</v>
+        <v>241.4760184604742</v>
       </c>
       <c r="P20" t="n">
-        <v>206.0941950108789</v>
+        <v>206.0941950108791</v>
       </c>
       <c r="Q20" t="n">
-        <v>154.7681574498208</v>
+        <v>154.768157449821</v>
       </c>
       <c r="R20" t="n">
-        <v>90.02748221835432</v>
+        <v>90.02748221835441</v>
       </c>
       <c r="S20" t="n">
-        <v>32.65876665752491</v>
+        <v>32.65876665752494</v>
       </c>
       <c r="T20" t="n">
-        <v>6.27377953015097</v>
+        <v>6.273779530150977</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1146550228240039</v>
+        <v>0.1146550228240041</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.766823068332947</v>
+        <v>0.7668230683329478</v>
       </c>
       <c r="H21" t="n">
-        <v>7.405896475741883</v>
+        <v>7.405896475741891</v>
       </c>
       <c r="I21" t="n">
-        <v>26.4015837123405</v>
+        <v>26.40158371234053</v>
       </c>
       <c r="J21" t="n">
-        <v>72.44796366210532</v>
+        <v>72.44796366210539</v>
       </c>
       <c r="K21" t="n">
-        <v>123.8251092404128</v>
+        <v>123.8251092404129</v>
       </c>
       <c r="L21" t="n">
-        <v>166.4981403413269</v>
+        <v>166.4981403413271</v>
       </c>
       <c r="M21" t="n">
-        <v>194.2954765683962</v>
+        <v>194.2954765683964</v>
       </c>
       <c r="N21" t="n">
-        <v>199.4378996889273</v>
+        <v>199.4378996889275</v>
       </c>
       <c r="O21" t="n">
-        <v>182.4467148590236</v>
+        <v>182.4467148590237</v>
       </c>
       <c r="P21" t="n">
-        <v>146.4295734608765</v>
+        <v>146.4295734608767</v>
       </c>
       <c r="Q21" t="n">
-        <v>97.88429202088636</v>
+        <v>97.88429202088646</v>
       </c>
       <c r="R21" t="n">
-        <v>47.61029541807545</v>
+        <v>47.61029541807549</v>
       </c>
       <c r="S21" t="n">
-        <v>14.24340216837732</v>
+        <v>14.24340216837733</v>
       </c>
       <c r="T21" t="n">
-        <v>3.090835086833237</v>
+        <v>3.09083508683324</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05044888607453601</v>
+        <v>0.05044888607453606</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6428787012339776</v>
+        <v>0.6428787012339782</v>
       </c>
       <c r="H22" t="n">
-        <v>5.715776089153005</v>
+        <v>5.71577608915301</v>
       </c>
       <c r="I22" t="n">
-        <v>19.33311585165453</v>
+        <v>19.33311585165455</v>
       </c>
       <c r="J22" t="n">
-        <v>45.45152417724221</v>
+        <v>45.45152417724226</v>
       </c>
       <c r="K22" t="n">
-        <v>74.69081637972938</v>
+        <v>74.69081637972945</v>
       </c>
       <c r="L22" t="n">
-        <v>95.57852981800428</v>
+        <v>95.57852981800438</v>
       </c>
       <c r="M22" t="n">
-        <v>100.7741585943407</v>
+        <v>100.7741585943408</v>
       </c>
       <c r="N22" t="n">
-        <v>98.37797434428684</v>
+        <v>98.37797434428694</v>
       </c>
       <c r="O22" t="n">
-        <v>90.86798224350807</v>
+        <v>90.86798224350815</v>
       </c>
       <c r="P22" t="n">
-        <v>77.75325673833485</v>
+        <v>77.75325673833494</v>
       </c>
       <c r="Q22" t="n">
-        <v>53.83232470060153</v>
+        <v>53.83232470060158</v>
       </c>
       <c r="R22" t="n">
-        <v>28.90616414821138</v>
+        <v>28.90616414821141</v>
       </c>
       <c r="S22" t="n">
-        <v>11.20362245695941</v>
+        <v>11.20362245695942</v>
       </c>
       <c r="T22" t="n">
-        <v>2.746845359817903</v>
+        <v>2.746845359817906</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03506611097639882</v>
+        <v>0.03506611097639886</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34392,7 +34392,7 @@
         <v>250.9711546819842</v>
       </c>
       <c r="R44" t="n">
-        <v>145.9880477854613</v>
+        <v>145.9880477854609</v>
       </c>
       <c r="S44" t="n">
         <v>52.95926832485528</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>3.960183850264116</v>
+        <v>3.960183850264215</v>
       </c>
       <c r="K11" t="n">
-        <v>39.248457565124</v>
+        <v>39.24845756512414</v>
       </c>
       <c r="L11" t="n">
-        <v>72.91961169824611</v>
+        <v>72.91961169824631</v>
       </c>
       <c r="M11" t="n">
-        <v>101.9301831078403</v>
+        <v>101.9301831078405</v>
       </c>
       <c r="N11" t="n">
-        <v>106.6087881627673</v>
+        <v>106.6087881627675</v>
       </c>
       <c r="O11" t="n">
-        <v>91.91218103637758</v>
+        <v>91.91218103637777</v>
       </c>
       <c r="P11" t="n">
-        <v>55.79274776995376</v>
+        <v>55.79274776995393</v>
       </c>
       <c r="Q11" t="n">
-        <v>10.26945903142871</v>
+        <v>10.26945903142882</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>34.22817390707944</v>
+        <v>34.22817390707954</v>
       </c>
       <c r="L12" t="n">
-        <v>76.43779348440874</v>
+        <v>76.43779348440889</v>
       </c>
       <c r="M12" t="n">
-        <v>101.9083545190843</v>
+        <v>101.9083545190845</v>
       </c>
       <c r="N12" t="n">
-        <v>114.0657868347607</v>
+        <v>114.0657868347608</v>
       </c>
       <c r="O12" t="n">
-        <v>89.7591559701347</v>
+        <v>89.75915597013484</v>
       </c>
       <c r="P12" t="n">
-        <v>59.3462086415619</v>
+        <v>59.34620864156201</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.896138864972386</v>
+        <v>6.896138864972471</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>15.37703670508315</v>
+        <v>15.37703670508319</v>
       </c>
       <c r="K13" t="n">
-        <v>121.8916316581077</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="L13" t="n">
-        <v>121.8916316581077</v>
+        <v>91.1172815141986</v>
       </c>
       <c r="M13" t="n">
-        <v>121.8916316581077</v>
+        <v>10.4723990283975</v>
       </c>
       <c r="N13" t="n">
-        <v>100.7184482927856</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="O13" t="n">
-        <v>0.8712322498102765</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>3.960183850264116</v>
+        <v>3.960183850264215</v>
       </c>
       <c r="K14" t="n">
-        <v>39.248457565124</v>
+        <v>39.24845756512414</v>
       </c>
       <c r="L14" t="n">
-        <v>72.91961169824611</v>
+        <v>72.91961169824631</v>
       </c>
       <c r="M14" t="n">
-        <v>101.9301831078403</v>
+        <v>101.9301831078405</v>
       </c>
       <c r="N14" t="n">
-        <v>106.6087881627673</v>
+        <v>106.6087881627675</v>
       </c>
       <c r="O14" t="n">
-        <v>91.91218103637758</v>
+        <v>91.91218103637777</v>
       </c>
       <c r="P14" t="n">
-        <v>55.79274776995376</v>
+        <v>55.79274776995393</v>
       </c>
       <c r="Q14" t="n">
-        <v>10.26945903142871</v>
+        <v>10.26945903142882</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>34.22817390707944</v>
+        <v>34.22817390707954</v>
       </c>
       <c r="L15" t="n">
-        <v>76.43779348440874</v>
+        <v>76.43779348440889</v>
       </c>
       <c r="M15" t="n">
-        <v>101.9083545190843</v>
+        <v>101.9083545190845</v>
       </c>
       <c r="N15" t="n">
-        <v>114.0657868347607</v>
+        <v>114.0657868347608</v>
       </c>
       <c r="O15" t="n">
-        <v>89.7591559701347</v>
+        <v>89.75915597013484</v>
       </c>
       <c r="P15" t="n">
-        <v>59.3462086415619</v>
+        <v>59.34620864156201</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.896138864972386</v>
+        <v>6.896138864972471</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>15.37703670508315</v>
+        <v>15.37703670508319</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>121.8916316581076</v>
+        <v>44.30059183184213</v>
       </c>
       <c r="M16" t="n">
-        <v>121.8916316581076</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="N16" t="n">
-        <v>121.8916316581076</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="O16" t="n">
-        <v>44.30059183184181</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.28908871075402</v>
+        <v>57.28908871075406</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>3.960183850264102</v>
+        <v>3.960183850264215</v>
       </c>
       <c r="K17" t="n">
-        <v>39.24845756512397</v>
+        <v>39.24845756512414</v>
       </c>
       <c r="L17" t="n">
-        <v>72.91961169824609</v>
+        <v>72.91961169824631</v>
       </c>
       <c r="M17" t="n">
-        <v>101.9301831078403</v>
+        <v>101.9301831078405</v>
       </c>
       <c r="N17" t="n">
-        <v>106.6087881627672</v>
+        <v>106.6087881627675</v>
       </c>
       <c r="O17" t="n">
-        <v>91.91218103637755</v>
+        <v>91.91218103637777</v>
       </c>
       <c r="P17" t="n">
-        <v>55.79274776995373</v>
+        <v>55.79274776995393</v>
       </c>
       <c r="Q17" t="n">
-        <v>10.26945903142868</v>
+        <v>10.26945903142882</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>34.22817390707942</v>
+        <v>34.22817390707954</v>
       </c>
       <c r="L18" t="n">
-        <v>76.43779348440872</v>
+        <v>76.43779348440889</v>
       </c>
       <c r="M18" t="n">
-        <v>101.9083545190843</v>
+        <v>101.9083545190845</v>
       </c>
       <c r="N18" t="n">
-        <v>114.0657868347606</v>
+        <v>114.0657868347608</v>
       </c>
       <c r="O18" t="n">
-        <v>89.75915597013467</v>
+        <v>89.75915597013484</v>
       </c>
       <c r="P18" t="n">
-        <v>59.34620864156187</v>
+        <v>59.34620864156201</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.896138864972284</v>
+        <v>6.896138864972471</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>15.37703670508314</v>
+        <v>15.37703670508319</v>
       </c>
       <c r="K19" t="n">
-        <v>121.8916316581076</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="L19" t="n">
-        <v>100.7184482927856</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="M19" t="n">
-        <v>121.8916316581076</v>
+        <v>10.4723990283975</v>
       </c>
       <c r="N19" t="n">
-        <v>121.8916316581076</v>
+        <v>15.38237044188537</v>
       </c>
       <c r="O19" t="n">
-        <v>0.8712322498102623</v>
+        <v>18.44582236155929</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>57.28908871075406</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>3.960183850264102</v>
+        <v>3.960183850264215</v>
       </c>
       <c r="K20" t="n">
-        <v>39.24845756512397</v>
+        <v>39.24845756512414</v>
       </c>
       <c r="L20" t="n">
-        <v>72.91961169824609</v>
+        <v>72.91961169824631</v>
       </c>
       <c r="M20" t="n">
-        <v>101.9301831078403</v>
+        <v>101.9301831078405</v>
       </c>
       <c r="N20" t="n">
-        <v>106.6087881627672</v>
+        <v>106.6087881627675</v>
       </c>
       <c r="O20" t="n">
-        <v>91.91218103637755</v>
+        <v>91.91218103637777</v>
       </c>
       <c r="P20" t="n">
-        <v>55.79274776995373</v>
+        <v>55.79274776995393</v>
       </c>
       <c r="Q20" t="n">
-        <v>10.26945903142868</v>
+        <v>10.26945903142882</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>34.22817390707942</v>
+        <v>34.22817390707954</v>
       </c>
       <c r="L21" t="n">
-        <v>76.43779348440872</v>
+        <v>76.43779348440889</v>
       </c>
       <c r="M21" t="n">
-        <v>101.9083545190843</v>
+        <v>101.9083545190845</v>
       </c>
       <c r="N21" t="n">
-        <v>114.0657868347606</v>
+        <v>114.0657868347608</v>
       </c>
       <c r="O21" t="n">
-        <v>89.75915597013467</v>
+        <v>89.75915597013484</v>
       </c>
       <c r="P21" t="n">
-        <v>59.34620864156187</v>
+        <v>59.34620864156201</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.896138864972054</v>
+        <v>6.896138864972471</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>15.37703670508314</v>
+        <v>15.37703670508319</v>
       </c>
       <c r="K22" t="n">
-        <v>121.8916316581076</v>
+        <v>93.6861903073966</v>
       </c>
       <c r="L22" t="n">
-        <v>28.04698914014618</v>
+        <v>7.903490235199499</v>
       </c>
       <c r="M22" t="n">
-        <v>121.8916316581076</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="N22" t="n">
-        <v>15.38237044188527</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="O22" t="n">
-        <v>0.8712322498102623</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="P22" t="n">
-        <v>121.8916316581076</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.28908871075402</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>35.03674418922216</v>
+        <v>231.7387593202599</v>
       </c>
       <c r="K24" t="n">
-        <v>111.1971501991826</v>
+        <v>160.6238920523375</v>
       </c>
       <c r="L24" t="n">
         <v>179.9320806707782</v>
@@ -36454,10 +36454,10 @@
         <v>203.1669854216848</v>
       </c>
       <c r="P24" t="n">
-        <v>380.7993111275196</v>
+        <v>150.3659899872877</v>
       </c>
       <c r="Q24" t="n">
-        <v>83.43588809691643</v>
+        <v>67.74045225295539</v>
       </c>
       <c r="R24" t="n">
         <v>53.52670876696033</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>43.62944292784585</v>
       </c>
       <c r="K25" t="n">
         <v>203.7798562867923</v>
       </c>
       <c r="L25" t="n">
-        <v>67.31455508887839</v>
+        <v>168.9683438498411</v>
       </c>
       <c r="M25" t="n">
         <v>351.5881078893722</v>
       </c>
       <c r="N25" t="n">
-        <v>235.5074243603387</v>
+        <v>344.5691922023066</v>
       </c>
       <c r="O25" t="n">
-        <v>311.6992473330512</v>
+        <v>57.35424780227454</v>
       </c>
       <c r="P25" t="n">
         <v>247.1712704238865</v>
@@ -36694,10 +36694,10 @@
         <v>150.3659899872877</v>
       </c>
       <c r="Q27" t="n">
-        <v>313.8692092371482</v>
+        <v>367.3959180041086</v>
       </c>
       <c r="R27" t="n">
-        <v>53.52670876696033</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36758,22 +36758,22 @@
         <v>203.7798562867923</v>
       </c>
       <c r="L28" t="n">
-        <v>320.7750894937033</v>
+        <v>125.2335830889686</v>
       </c>
       <c r="M28" t="n">
         <v>351.5881078893722</v>
       </c>
       <c r="N28" t="n">
-        <v>76.53355392494623</v>
+        <v>344.5691922023066</v>
       </c>
       <c r="O28" t="n">
-        <v>264.3340928109048</v>
+        <v>311.6992473330512</v>
       </c>
       <c r="P28" t="n">
-        <v>247.1712704238865</v>
+        <v>36.56103165398245</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>90.75095237513196</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>35.03674418922216</v>
+        <v>231.7387593202599</v>
       </c>
       <c r="K30" t="n">
         <v>111.1971501991826</v>
@@ -36931,10 +36931,10 @@
         <v>150.3659899872877</v>
       </c>
       <c r="Q30" t="n">
-        <v>313.869209237148</v>
+        <v>170.6939028730711</v>
       </c>
       <c r="R30" t="n">
-        <v>53.52670876696033</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>43.62944292784585</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>203.7798562867923</v>
@@ -37001,13 +37001,13 @@
         <v>351.5881078893722</v>
       </c>
       <c r="N31" t="n">
-        <v>344.5691922023066</v>
+        <v>76.53355392494623</v>
       </c>
       <c r="O31" t="n">
-        <v>57.35424780227454</v>
+        <v>217.2125833636189</v>
       </c>
       <c r="P31" t="n">
-        <v>95.36452478002428</v>
+        <v>247.1712704238865</v>
       </c>
       <c r="Q31" t="n">
         <v>90.75095237513196</v>
@@ -37156,10 +37156,10 @@
         <v>179.9320806707782</v>
       </c>
       <c r="M33" t="n">
-        <v>222.6813061554153</v>
+        <v>379.5726999088206</v>
       </c>
       <c r="N33" t="n">
-        <v>238.0352391297718</v>
+        <v>380.7993111275194</v>
       </c>
       <c r="O33" t="n">
         <v>203.1669854216848</v>
@@ -37168,7 +37168,7 @@
         <v>150.3659899872877</v>
       </c>
       <c r="Q33" t="n">
-        <v>367.3959180041082</v>
+        <v>67.74045225295539</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>14.60821202076871</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>37.25958078913436</v>
@@ -37244,10 +37244,10 @@
         <v>311.6992473330512</v>
       </c>
       <c r="P34" t="n">
-        <v>36.56103165398245</v>
+        <v>141.9201960498831</v>
       </c>
       <c r="Q34" t="n">
-        <v>90.75095237513196</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37384,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>35.03674418922216</v>
+        <v>138.4014291756675</v>
       </c>
       <c r="K36" t="n">
         <v>111.1971501991826</v>
       </c>
       <c r="L36" t="n">
-        <v>380.7993111275196</v>
+        <v>179.9320806707782</v>
       </c>
       <c r="M36" t="n">
         <v>222.6813061554153</v>
       </c>
       <c r="N36" t="n">
-        <v>238.0352391297718</v>
+        <v>380.7993111275196</v>
       </c>
       <c r="O36" t="n">
         <v>203.1669854216848</v>
       </c>
       <c r="P36" t="n">
-        <v>195.6275165147397</v>
+        <v>150.3659899872877</v>
       </c>
       <c r="Q36" t="n">
         <v>67.74045225295539</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>14.60821202076939</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>37.25958078913436</v>
+        <v>203.7798562867923</v>
       </c>
       <c r="L37" t="n">
         <v>320.7750894937033</v>
@@ -37478,10 +37478,10 @@
         <v>344.5691922023066</v>
       </c>
       <c r="O37" t="n">
-        <v>311.6992473330512</v>
+        <v>57.35424780227454</v>
       </c>
       <c r="P37" t="n">
-        <v>36.56103165398245</v>
+        <v>138.9939677078705</v>
       </c>
       <c r="Q37" t="n">
         <v>90.75095237513196</v>
@@ -37621,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>35.03674418922216</v>
+        <v>65.09004901203839</v>
       </c>
       <c r="K39" t="n">
-        <v>111.1971501991826</v>
+        <v>380.7993111275195</v>
       </c>
       <c r="L39" t="n">
         <v>179.9320806707782</v>
@@ -37642,7 +37642,7 @@
         <v>150.3659899872877</v>
       </c>
       <c r="Q39" t="n">
-        <v>367.3959180041089</v>
+        <v>67.74045225295539</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>43.62944292784585</v>
       </c>
       <c r="K40" t="n">
         <v>203.7798562867923</v>
       </c>
       <c r="L40" t="n">
-        <v>259.6139783919466</v>
+        <v>125.2335830889684</v>
       </c>
       <c r="M40" t="n">
         <v>351.5881078893722</v>
@@ -37721,7 +37721,7 @@
         <v>36.56103165398245</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>90.75095237513196</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>35.03674418922216</v>
       </c>
       <c r="K42" t="n">
-        <v>111.1971501991826</v>
+        <v>380.7993111275196</v>
       </c>
       <c r="L42" t="n">
         <v>179.9320806707782</v>
@@ -37876,10 +37876,10 @@
         <v>203.1669854216848</v>
       </c>
       <c r="P42" t="n">
-        <v>380.7993111275195</v>
+        <v>150.3659899872877</v>
       </c>
       <c r="Q42" t="n">
-        <v>136.9625968638766</v>
+        <v>97.79375707577162</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>43.62944292784585</v>
       </c>
       <c r="K43" t="n">
-        <v>203.7798562867923</v>
+        <v>98.98930225718958</v>
       </c>
       <c r="L43" t="n">
-        <v>259.6139783919461</v>
+        <v>320.7750894937033</v>
       </c>
       <c r="M43" t="n">
         <v>351.5881078893722</v>
@@ -38040,7 +38040,7 @@
         <v>106.472456263592</v>
       </c>
       <c r="R44" t="n">
-        <v>5.857448206275381</v>
+        <v>5.857448206275023</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>231.7387593202599</v>
+        <v>35.03674418922216</v>
       </c>
       <c r="K45" t="n">
         <v>111.1971501991826</v>
@@ -38113,10 +38113,10 @@
         <v>203.1669854216848</v>
       </c>
       <c r="P45" t="n">
-        <v>150.3659899872877</v>
+        <v>380.7993111275196</v>
       </c>
       <c r="Q45" t="n">
-        <v>170.6939028730706</v>
+        <v>136.9625968638771</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>43.62944292784585</v>
       </c>
       <c r="K46" t="n">
         <v>203.7798562867923</v>
       </c>
       <c r="L46" t="n">
-        <v>259.6139783919461</v>
+        <v>320.7750894937033</v>
       </c>
       <c r="M46" t="n">
-        <v>351.5881078893722</v>
+        <v>213.4720009920941</v>
       </c>
       <c r="N46" t="n">
-        <v>344.5691922023066</v>
+        <v>76.53355392494623</v>
       </c>
       <c r="O46" t="n">
         <v>311.6992473330512</v>
       </c>
       <c r="P46" t="n">
-        <v>36.56103165398245</v>
+        <v>247.1712704238865</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>90.75095237513196</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
